--- a/website/file/template_final.xlsx
+++ b/website/file/template_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\tienpd3.github.io\website\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4362830-FDF5-4FD8-95BE-BB86AFBB630C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC581B5F-CBDD-4D4D-A73F-DF7594D21758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HƯỚNG DẪN" sheetId="8" state="hidden" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="274">
   <si>
     <t xml:space="preserve"> LƯU Ý KHI SỬ DỤNG PHẦN MỀM ĐỊNH GIÁ  NÀY:</t>
   </si>
@@ -67,12 +67,6 @@
     <t>TỶ LỆ CỔ TỨC (tính theo mệnh giá)</t>
   </si>
   <si>
-    <t>THỊ GIÁ CỔ PHIẾU (đồng/cp)</t>
-  </si>
-  <si>
-    <t>TỔNG SỐ LƯỢNG CỔ PHIẾU (triệu cp)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -118,42 +112,6 @@
     <t>THÀNH CÔNG</t>
   </si>
   <si>
-    <t>#ROA</t>
-  </si>
-  <si>
-    <t>#ROE</t>
-  </si>
-  <si>
-    <t>#PE</t>
-  </si>
-  <si>
-    <t>#DTUP</t>
-  </si>
-  <si>
-    <t>#LNGUP</t>
-  </si>
-  <si>
-    <t>#GOS</t>
-  </si>
-  <si>
-    <t>#NPM</t>
-  </si>
-  <si>
-    <t>#ROIC</t>
-  </si>
-  <si>
-    <t>#NOVCSH</t>
-  </si>
-  <si>
-    <t>#PB</t>
-  </si>
-  <si>
-    <t>#DTP</t>
-  </si>
-  <si>
-    <t>#NDHLNST</t>
-  </si>
-  <si>
     <t>#BLDMB</t>
   </si>
   <si>
@@ -187,12 +145,6 @@
     <t>LNST #QGN</t>
   </si>
   <si>
-    <t>VỐN CHỦ SỞ HỮU HIỆN TẠI[#VCSHFY] (tỷ đồng)</t>
-  </si>
-  <si>
-    <t>Nợ dài hạn(#NDH)/LNST(#LNST) (#NDHLNSTFY) &lt;= 5</t>
-  </si>
-  <si>
     <t>P/E &lt;15(có thể 20) &lt;= 15</t>
   </si>
   <si>
@@ -284,9 +236,6 @@
   </si>
   <si>
     <t>Simplize:</t>
-  </si>
-  <si>
-    <t>#VCSHUP</t>
   </si>
   <si>
     <t>TIÊU CHUẨN ĐỊNH GIÁ DOANH NGHIỆP TỐT</t>
@@ -417,9 +366,6 @@
     </r>
   </si>
   <si>
-    <t>Đơn vị: triệu</t>
-  </si>
-  <si>
     <t>VALUE</t>
   </si>
   <si>
@@ -447,9 +393,6 @@
     <t>1. CÁC CHỈ SỐ TÀI CHÍNH:</t>
   </si>
   <si>
-    <t>EPS #EPSTitle</t>
-  </si>
-  <si>
     <t>LNST/CPLH</t>
   </si>
   <si>
@@ -828,15 +771,6 @@
     <t>#DGQ4</t>
   </si>
   <si>
-    <t>LNST #QFY1 ~ #QFY4 (tỷ đồng) Hiện tại</t>
-  </si>
-  <si>
-    <t>LNST #QFY0 ~ #QFY3 (tỷ đồng) Quý trước</t>
-  </si>
-  <si>
-    <t>GIÁ TRỊ THỰC CỔ PHIẾU (Quý trước, Hiện tại)</t>
-  </si>
-  <si>
     <t>#DGLNSTValQ0</t>
   </si>
   <si>
@@ -958,24 +892,98 @@
   </si>
   <si>
     <t>#HY0</t>
+  </si>
+  <si>
+    <t>GIÁ TRỊ THỰC CỔ PHIẾU</t>
+  </si>
+  <si>
+    <t>VỐN CHỦ SỞ HỮU HIỆN TẠI[#DGQ0] (tỷ đồng)</t>
+  </si>
+  <si>
+    <t>LNST #DGQ4 ~ #DGQ1</t>
+  </si>
+  <si>
+    <t>LNST #DGQ3 ~ #DGQ0</t>
+  </si>
+  <si>
+    <t>Quý: #DGQ0</t>
+  </si>
+  <si>
+    <t>Quý: #DGQ1</t>
+  </si>
+  <si>
+    <t>TỔNG SỐ LƯỢNG CỔ PHIẾU</t>
+  </si>
+  <si>
+    <t>THỊ GIÁ CỔ PHIẾU</t>
+  </si>
+  <si>
+    <t>#DGDTTUpVal</t>
+  </si>
+  <si>
+    <t>#DGLNGUpVal</t>
+  </si>
+  <si>
+    <t>#DGVCSHUpVal</t>
+  </si>
+  <si>
+    <t>#DGGOSVal</t>
+  </si>
+  <si>
+    <t>#DGNPMVal</t>
+  </si>
+  <si>
+    <t>#DGROAVal</t>
+  </si>
+  <si>
+    <t>#DGROEVal</t>
+  </si>
+  <si>
+    <t>#DGROICVal</t>
+  </si>
+  <si>
+    <t>#DGDOEVal</t>
+  </si>
+  <si>
+    <t>#DGPEVal</t>
+  </si>
+  <si>
+    <t>#DGPBVal</t>
+  </si>
+  <si>
+    <t>#DGHDKDVal</t>
+  </si>
+  <si>
+    <t>#DGNDHLNSTValQ0</t>
+  </si>
+  <si>
+    <t>Nợ dài(#DGNDHValQ0 tỷ)/LNST(#DGLNSTValQ0 tỷ) (#DGQ0) &lt;= 5</t>
+  </si>
+  <si>
+    <t>QUÝ</t>
+  </si>
+  <si>
+    <t>EPS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="11">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="0.00_ "/>
-    <numFmt numFmtId="167" formatCode="#,##0.0_);[Red]\-#,##0.0"/>
-    <numFmt numFmtId="168" formatCode="0%_);[Red]\-0%"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0&quot; tỷ&quot;;[Red]\-#,##0.0&quot; tỷ&quot;"/>
-    <numFmt numFmtId="170" formatCode="0.0%_);[Red]\-0.0%"/>
-    <numFmt numFmtId="171" formatCode="#,##0.00,,,\ &quot; tỷ&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0_);[Red]\-#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="0%_);[Red]\-0%"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0&quot; tỷ&quot;;[Red]\-#,##0.0&quot; tỷ&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.0%_);[Red]\-0.0%"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00,,,\ &quot; tỷ&quot;"/>
+    <numFmt numFmtId="171" formatCode="#,##0.00\ &quot;tỷ&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00\ &quot;triệu&quot;"/>
+    <numFmt numFmtId="173" formatCode="#,##0\ &quot;đồng&quot;"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1245,6 +1253,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1320,87 +1334,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="26">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1412,90 +1351,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1521,7 +1376,233 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1535,63 +1616,10 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1606,37 +1634,22 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="14" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="17" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1655,104 +1668,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="26" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="26" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="26" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="26" fillId="7" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="27" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="27" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="27" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="27" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="26" fillId="7" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="26" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="27" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="34" fillId="11" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1765,71 +1680,248 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="34" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="170" fontId="35" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="26" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="7" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="26" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="26" fillId="7" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="26" fillId="7" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="26" fillId="7" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="26" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="27" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="173" fontId="27" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="27" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="27" fillId="9" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="27" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="27" fillId="9" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="9" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="9" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="9" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="9" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="35" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2715,7 +2807,7 @@
       </c>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="21"/>
+      <c r="C13" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2724,527 +2816,536 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="75" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="75" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="43.6328125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="10" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="30" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" style="30" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="31"/>
+    <col min="1" max="1" width="43.6328125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="11" style="15" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" style="15" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
-      <c r="A1" s="103" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="96" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="96"/>
+    <row r="1" spans="1:5">
+      <c r="A1" s="124" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="125"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="98"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="B2" s="77">
+      <c r="A2" s="61" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="92">
         <f>E2</f>
         <v>0</v>
       </c>
-      <c r="C2" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="D2" s="75" t="s">
-        <v>231</v>
-      </c>
-      <c r="E2" s="79">
+      <c r="C2" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2" s="49">
         <f>SUM(D3:D6)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="B3" s="77">
+      <c r="A3" s="61" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="92">
         <f>E3</f>
         <v>0</v>
       </c>
-      <c r="C3" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="D3" s="75" t="s">
-        <v>232</v>
-      </c>
-      <c r="E3" s="79">
+      <c r="C3" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" s="49">
         <f>SUM(D2:D5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="78" t="s">
-        <v>236</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="D4" s="75" t="s">
-        <v>233</v>
-      </c>
-      <c r="E4" s="44"/>
+      <c r="A4" s="90" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4" s="93" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="45" t="s">
-        <v>239</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="D5" s="75" t="s">
-        <v>234</v>
-      </c>
-      <c r="E5" s="44"/>
+      <c r="B5" s="94" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" s="46"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>237</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>227</v>
-      </c>
-      <c r="D6" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="E6" s="44"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="42" t="s">
+      <c r="A6" s="90" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="95" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="46"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.5" thickBot="1">
+      <c r="A7" s="90" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" s="96" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="46"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.5" thickBot="1">
+      <c r="A8" s="91"/>
+      <c r="B8" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="50"/>
+      <c r="E8" s="46"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="71" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" s="72" t="e">
+        <f>Hidden!C18</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C9" s="73" t="e">
+        <f>Hidden!C17</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="87" t="e">
+        <f>Hidden!C23</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C10" s="66" t="e">
+        <f>Hidden!C22</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D10" s="99" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="99"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11" s="88" t="e">
+        <f>Hidden!C24</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C11" s="67" t="e">
+        <f>Hidden!C24</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="43" t="s">
-        <v>238</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="44"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.5" customHeight="1">
-      <c r="A8" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="B8" s="48" t="e">
-        <f>Hidden!C17</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C8" s="49" t="e">
-        <f>Hidden!C18</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="53" t="e">
-        <f>Hidden!C22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C9" s="54" t="e">
-        <f>Hidden!C23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D9" s="97" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="98"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="55" t="s">
-        <v>240</v>
-      </c>
-      <c r="B10" s="56" t="e">
-        <f>Hidden!C24</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C10" s="57" t="e">
-        <f>Hidden!C24</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D10" s="99"/>
-      <c r="E10" s="100"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="55" t="s">
+      <c r="B12" s="89" t="e">
+        <f>Hidden!C26</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C12" s="67" t="e">
+        <f>Hidden!C25</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="75" t="e">
+        <f>Hidden!C27</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C13" s="76" t="e">
+        <f>Hidden!C28</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+    </row>
+    <row r="14" spans="1:5" ht="14.5" thickBot="1">
+      <c r="A14" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="65" t="e">
+        <f>IF(B13 &gt;= 20%, "YES", "NO")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C14" s="68" t="e">
+        <f>IF(C13 &gt;= 20%, "YES", "NO")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="46"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="56" t="e">
-        <f>Hidden!C25</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C11" s="57" t="e">
-        <f>Hidden!C26</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D11" s="99"/>
-      <c r="E11" s="100"/>
-    </row>
-    <row r="12" spans="1:5" ht="14.5" thickBot="1">
-      <c r="A12" s="58" t="s">
+      <c r="C15" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="59" t="e">
-        <f>Hidden!C27</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C12" s="59" t="e">
-        <f>Hidden!C28</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D12" s="101"/>
-      <c r="E12" s="102"/>
-    </row>
-    <row r="13" spans="1:5" ht="14.5" thickBot="1">
-      <c r="A13" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="61" t="e">
-        <f>IF(B12 &gt;= 20%, "YES", "NO")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C13" s="61" t="e">
-        <f>IF(C12 &gt;= 20%, "YES", "NO")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D13" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="44"/>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1">
-      <c r="A14" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="80" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="81" t="e">
-        <f>IF(OR(C29="NO", (C12 * 100) &lt; 10, (C11 * 100) &lt;= 0, (C9 * 100) &lt;= 0, C27="NO"), "NO", "YES")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E14" s="44"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="67" t="e">
-        <f>IF(B15="N/A", "N/A", _xlfn.IFS(B15=1,"YES",B15=0,"NO"))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
+      <c r="D15" s="54" t="e">
+        <f>IF(OR(C30="NO", (C13 * 100) &lt; 10, (C12 * 100) &lt;= 0, (C10 * 100) &lt;= 0, C28="NO"), "NO", "YES")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E15" s="46"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="67" t="e">
+      <c r="A16" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="80" t="s">
+        <v>258</v>
+      </c>
+      <c r="C16" s="84" t="e">
         <f>IF(B16="N/A", "N/A", _xlfn.IFS(B16=1,"YES",B16=0,"NO"))</f>
         <v>#N/A</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-    </row>
-    <row r="17" spans="1:5" s="39" customFormat="1" ht="25" customHeight="1">
-      <c r="A17" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="67" t="e">
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+    </row>
+    <row r="17" spans="1:5" s="24" customFormat="1">
+      <c r="A17" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="97" t="s">
+        <v>259</v>
+      </c>
+      <c r="C17" s="85" t="e">
         <f>IF(B17="N/A", "N/A", _xlfn.IFS(B17=1,"YES",B17=0,"NO"))</f>
         <v>#N/A</v>
       </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="67" t="str">
-        <f>IF(B18="N/A", "N/A", _xlfn.IFS(B18&gt;=15,"YES",B18&lt;15,"NO"))</f>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+    </row>
+    <row r="18" spans="1:5" ht="23.5">
+      <c r="A18" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="81" t="s">
+        <v>260</v>
+      </c>
+      <c r="C18" s="85" t="e">
+        <f>IF(B18="N/A", "N/A", _xlfn.IFS(B18=1,"YES",B18=0,"NO"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="82" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="85" t="str">
+        <f>IF(B19="N/A", "N/A", _xlfn.IFS(B19&gt;=15,"YES",B19&lt;15,"NO"))</f>
         <v>YES</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="67" t="str">
-        <f>IF(B19="N/A", "N/A", _xlfn.IFS(B19&gt;=5,"YES",B19&lt;5,"NO"))</f>
-        <v>YES</v>
-      </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="67" t="str">
+      <c r="A20" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="82" t="s">
+        <v>262</v>
+      </c>
+      <c r="C20" s="85" t="str">
         <f>IF(B20="N/A", "N/A", _xlfn.IFS(B20&gt;=5,"YES",B20&lt;5,"NO"))</f>
         <v>YES</v>
       </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="67" t="str">
-        <f>IF(B21="N/A", "N/A", _xlfn.IFS(B21&gt;=15,"YES",B21&lt;15,"NO"))</f>
+      <c r="A21" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="82" t="s">
+        <v>263</v>
+      </c>
+      <c r="C21" s="85" t="str">
+        <f>IF(B21="N/A", "N/A", _xlfn.IFS(B21&gt;=5,"YES",B21&lt;5,"NO"))</f>
         <v>YES</v>
       </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="72" t="s">
+      <c r="A22" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="82" t="s">
+        <v>264</v>
+      </c>
+      <c r="C22" s="85" t="str">
+        <f>IF(B22="N/A", "N/A", _xlfn.IFS(B22&gt;=15,"YES",B22&lt;15,"NO"))</f>
+        <v>YES</v>
+      </c>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="82" t="s">
+        <v>265</v>
+      </c>
+      <c r="C23" s="85" t="str">
+        <f>IF(B23="N/A", "N/A", _xlfn.IFS(B23&gt;=10,"YES",B23&lt;10,"NO"))</f>
+        <v>YES</v>
+      </c>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="67" t="str">
-        <f>IF(B22="N/A", "N/A", _xlfn.IFS(B22&gt;=10,"YES",B22&lt;10,"NO"))</f>
-        <v>YES</v>
-      </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="67" t="str">
-        <f>IF(B23="N/A", "N/A", _xlfn.IFS(B23&lt;=1,"YES",B23&gt;1,"NO"))</f>
+      <c r="B24" s="82" t="s">
+        <v>266</v>
+      </c>
+      <c r="C24" s="85" t="str">
+        <f>IF(B24="N/A", "N/A", _xlfn.IFS(B24&lt;=1,"YES",B24&gt;1,"NO"))</f>
         <v>NO</v>
       </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="72" t="s">
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="82" t="s">
+        <v>267</v>
+      </c>
+      <c r="C25" s="85" t="str">
+        <f>IF(B25="N/A", "N/A", _xlfn.IFS(B25&lt;=15,"YES",B25&gt;15,"NO"))</f>
+        <v>NO</v>
+      </c>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="67" t="str">
-        <f>IF(B24="N/A", "N/A", _xlfn.IFS(B24&lt;=15,"YES",B24&gt;15,"NO"))</f>
+      <c r="B26" s="82" t="s">
+        <v>268</v>
+      </c>
+      <c r="C26" s="85" t="str">
+        <f>IF(B26="N/A", "N/A", _xlfn.IFS(B26&lt;=2,"YES",B26&gt;2,"NO"))</f>
         <v>NO</v>
       </c>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="67" t="str">
-        <f>IF(B25="N/A", "N/A", _xlfn.IFS(B25&lt;=2,"YES",B25&gt;2,"NO"))</f>
-        <v>NO</v>
-      </c>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="67" t="str">
-        <f>IF(B26="N/A", "N/A", _xlfn.IFS(B26=1,"YES",B26=0,"NO"))</f>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="85" t="str">
+        <f>IF(B27="N/A", "N/A", _xlfn.IFS(B27=1,"YES",B27=0,"NO"))</f>
         <v>N/A</v>
       </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-    </row>
-    <row r="27" spans="1:5" ht="25" customHeight="1">
-      <c r="A27" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="67" t="e">
-        <f>IF(B27="N/A", "N/A", _xlfn.IFS(B27=1,"YES",B27=0,"NO"))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="67" t="e">
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+    </row>
+    <row r="28" spans="1:5" ht="23.5">
+      <c r="A28" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="85" t="e">
         <f>IF(B28="N/A", "N/A", _xlfn.IFS(B28=1,"YES",B28=0,"NO"))</f>
         <v>#N/A</v>
       </c>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-    </row>
-    <row r="29" spans="1:5" ht="14.5" thickBot="1">
-      <c r="A29" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="74" t="str">
-        <f>IF(B29="N/A", "N/A", IF(AND(0&lt;=B29, B29&lt;=5),"YES", "NO"))</f>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="81" t="s">
+        <v>269</v>
+      </c>
+      <c r="C29" s="85" t="e">
+        <f>IF(B29="N/A", "N/A", _xlfn.IFS(B29=1,"YES",B29=0,"NO"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+    </row>
+    <row r="30" spans="1:5" ht="14.5" thickBot="1">
+      <c r="A30" s="60" t="s">
+        <v>271</v>
+      </c>
+      <c r="B30" s="83" t="s">
+        <v>270</v>
+      </c>
+      <c r="C30" s="86" t="str">
+        <f>IF(B30="N/A", "N/A", IF(AND(0&lt;=B30, B30&lt;=5),"YES", "NO"))</f>
         <v>NO</v>
       </c>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-    </row>
-    <row r="30" spans="1:5" ht="41.5" customHeight="1">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D9:E12"/>
+    <mergeCell ref="D10:E13"/>
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
-  <conditionalFormatting sqref="B9:C12">
+  <conditionalFormatting sqref="B10:C13">
     <cfRule type="cellIs" dxfId="50" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:C13">
+  <conditionalFormatting sqref="B14:C14">
     <cfRule type="containsText" dxfId="49" priority="7" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH("YES",B13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("YES",B14)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="48" priority="8" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",B13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO",B14)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="47" priority="9" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",B13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO",B14)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="46" priority="10" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",B13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO",B14)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="45" priority="11" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",B13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO",B14)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="44" priority="12" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",B13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO",B14)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C29">
+  <conditionalFormatting sqref="C16:C30">
     <cfRule type="containsText" dxfId="43" priority="34" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH("YES",C15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("YES",C16)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="42" priority="35" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO",C16)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="41" priority="36" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO",C16)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="40" priority="37" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO",C16)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="39" priority="38" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO",C16)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
+  <conditionalFormatting sqref="D15">
     <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH("YES",D14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("YES",D15)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="36" priority="2" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",D14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO",D15)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",D14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO",D15)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="34" priority="4" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",D14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO",D15)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",D14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO",D15)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",D14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO",D15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.27500000000000002" right="0.156944444444444" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3254,871 +3355,876 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D72A67F-DFF9-437F-9E79-D965885C7F31}">
-  <dimension ref="A4:J45"/>
+  <dimension ref="A4:J46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H36" sqref="D36:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.81640625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" style="84" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="84" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" style="84"/>
-    <col min="4" max="8" width="16.7265625" style="84" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" style="84"/>
-    <col min="10" max="10" width="10.7265625" style="84" customWidth="1"/>
-    <col min="11" max="16384" width="11.81640625" style="84"/>
+    <col min="1" max="1" width="13.08984375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="19.08984375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" style="27"/>
+    <col min="4" max="8" width="16.7265625" style="27" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" style="27"/>
+    <col min="10" max="10" width="10.7265625" style="27" customWidth="1"/>
+    <col min="11" max="16384" width="11.81640625" style="27"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:10">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="42"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="41" t="e">
+        <f t="shared" ref="D9:G9" si="0">IF(E8="", "", (100%*(D8-E8)/E8) + VALUE(E9))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E9" s="41" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F9" s="41" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G9" s="41" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H9" s="41" t="str">
+        <f>IF(I8="", "", (100%*(H8-I8)/I8) + VALUE(I9))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B12" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="D5" s="85" t="s">
+      <c r="D12" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="85" t="s">
+      <c r="E12" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="F12" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="85" t="s">
+      <c r="G12" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="H5" s="85" t="s">
+      <c r="H12" s="42" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="86" t="s">
+      <c r="J12" s="33"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="84" t="s">
+      <c r="B13" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="D13" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="109" t="s">
+      <c r="E13" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="109" t="s">
+      <c r="F13" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="109" t="s">
+      <c r="G13" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="109" t="s">
+      <c r="H13" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="H7" s="109" t="s">
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="27" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="84" t="s">
+      <c r="B14" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="108" t="e">
-        <f t="shared" ref="D8:G8" si="0">IF(E7="", "", (100%*(D7-E7)/E7))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E8" s="108" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F8" s="108" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G8" s="108" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H8" s="108" t="str">
-        <f>IF(I7="", "", (100%*(H7-I7)/I7))</f>
+      <c r="D14" s="43" t="e">
+        <f>(D39/D22)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E14" s="43" t="e">
+        <f>(E39/E22)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F14" s="43" t="e">
+        <f>(F39/F22)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G14" s="43" t="e">
+        <f>(G39/G22)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H14" s="43" t="e">
+        <f>(H39/H22)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="43" t="e">
+        <f>(D39/D26)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E15" s="43" t="e">
+        <f>(E39/E26)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F15" s="43" t="e">
+        <f>(F39/F26)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G15" s="43" t="e">
+        <f>(G39/G26)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H15" s="43" t="e">
+        <f>(H39/H26)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="43" t="e">
+        <f>(D39/D32)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E16" s="43" t="e">
+        <f t="shared" ref="E16:H16" si="1">(E39/E32)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F16" s="43" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G16" s="43" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H16" s="43" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="43" t="e">
+        <f>(D34/D32)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E17" s="43" t="e">
+        <f t="shared" ref="E17:H17" si="2">(E34/E32)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F17" s="43" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G17" s="43" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H17" s="43" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="43" t="e">
+        <f>(D24/D26)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E18" s="43" t="e">
+        <f t="shared" ref="E18:H18" si="3">(E24/E26)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F18" s="43" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G18" s="43" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H18" s="43" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="43" t="e">
+        <f>(D24/D22)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E19" s="43" t="e">
+        <f t="shared" ref="E19:H19" si="4">(E24/E22)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F19" s="43" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G19" s="43" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H19" s="43" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" s="40" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" hidden="1">
+      <c r="A23" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" s="40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" hidden="1">
+      <c r="A25" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="40" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="G26" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="H26" s="40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" hidden="1">
+      <c r="A27" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="G27" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="H27" s="40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+    </row>
+    <row r="29" spans="1:8" hidden="1">
+      <c r="A29" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+    </row>
+    <row r="31" spans="1:8" hidden="1">
+      <c r="A31" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="F32" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="H32" s="40" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" hidden="1">
+      <c r="A33" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="G33" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="H33" s="40" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="F34" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="G34" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="H34" s="40" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" hidden="1">
+      <c r="A35" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="F35" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="G35" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="H35" s="40" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="D36" s="41" t="e">
+        <f t="shared" ref="D36:G36" si="5">IF(E34="", "", (100%*(D34-E34)/E34) + VALUE(E36))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E36" s="41" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F36" s="41" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G36" s="41" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H36" s="41" t="str">
+        <f>IF(I34="", "", (100%*(H34-I34)/I34) + VALUE(I36))</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="84" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="84" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="84" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="84" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="89" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="109" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="109" t="s">
-        <v>115</v>
-      </c>
-      <c r="F11" s="109" t="s">
-        <v>116</v>
-      </c>
-      <c r="G11" s="109" t="s">
-        <v>117</v>
-      </c>
-      <c r="H11" s="109" t="s">
-        <v>118</v>
-      </c>
-      <c r="J11" s="90"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="84" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="109" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="109" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="109" t="s">
-        <v>123</v>
-      </c>
-      <c r="G12" s="109" t="s">
-        <v>124</v>
-      </c>
-      <c r="H12" s="109" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="84" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="84" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="110" t="e">
-        <f>(D38/D21)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E13" s="110" t="e">
-        <f>(E38/E21)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F13" s="110" t="e">
-        <f>(F38/F21)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G13" s="110" t="e">
-        <f>(G38/G21)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H13" s="110" t="e">
-        <f>(H38/H21)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" s="91" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" s="110" t="e">
-        <f>(D38/D25)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E14" s="110" t="e">
-        <f>(E38/E25)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F14" s="110" t="e">
-        <f>(F38/F25)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G14" s="110" t="e">
-        <f>(G38/G25)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H14" s="110" t="e">
-        <f>(H38/H25)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="84" t="s">
-        <v>130</v>
-      </c>
-      <c r="B15" s="92" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" s="110" t="e">
-        <f>(D38/D31)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E15" s="110" t="e">
-        <f t="shared" ref="E15:H15" si="1">(E38/E31)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F15" s="110" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G15" s="110" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H15" s="110" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="84" t="s">
-        <v>132</v>
-      </c>
-      <c r="B16" s="92" t="s">
-        <v>133</v>
-      </c>
-      <c r="D16" s="110" t="e">
-        <f>(D33/D31)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E16" s="110" t="e">
-        <f t="shared" ref="E16:H16" si="2">(E33/E31)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F16" s="110" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G16" s="110" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H16" s="110" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="84" t="s">
-        <v>134</v>
-      </c>
-      <c r="B17" s="92" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" s="110" t="e">
-        <f>(D23/D25)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E17" s="110" t="e">
-        <f t="shared" ref="E17:H17" si="3">(E23/E25)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F17" s="110" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G17" s="110" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H17" s="110" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="84" t="s">
-        <v>136</v>
-      </c>
-      <c r="B18" s="92" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" s="110" t="e">
-        <f>(D23/D21)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E18" s="110" t="e">
-        <f t="shared" ref="E18:H18" si="4">(E23/E21)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F18" s="110" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G18" s="110" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H18" s="110" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="93" t="s">
-        <v>138</v>
-      </c>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="84" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="84" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="106" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21" s="107" t="s">
-        <v>142</v>
-      </c>
-      <c r="F21" s="107" t="s">
-        <v>143</v>
-      </c>
-      <c r="G21" s="107" t="s">
-        <v>144</v>
-      </c>
-      <c r="H21" s="107" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" hidden="1">
-      <c r="A22" s="84" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" s="106" t="s">
-        <v>147</v>
-      </c>
-      <c r="E22" s="106" t="s">
-        <v>148</v>
-      </c>
-      <c r="F22" s="106" t="s">
-        <v>149</v>
-      </c>
-      <c r="G22" s="106" t="s">
-        <v>150</v>
-      </c>
-      <c r="H22" s="106" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="84" t="s">
-        <v>152</v>
-      </c>
-      <c r="D23" s="107" t="s">
-        <v>153</v>
-      </c>
-      <c r="E23" s="107" t="s">
-        <v>154</v>
-      </c>
-      <c r="F23" s="107" t="s">
-        <v>155</v>
-      </c>
-      <c r="G23" s="107" t="s">
-        <v>156</v>
-      </c>
-      <c r="H23" s="107" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" hidden="1">
-      <c r="A24" s="84" t="s">
-        <v>158</v>
-      </c>
-      <c r="D24" s="107" t="s">
-        <v>159</v>
-      </c>
-      <c r="E24" s="107" t="s">
-        <v>160</v>
-      </c>
-      <c r="F24" s="107" t="s">
-        <v>161</v>
-      </c>
-      <c r="G24" s="107" t="s">
-        <v>162</v>
-      </c>
-      <c r="H24" s="107" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="84" t="s">
-        <v>164</v>
-      </c>
-      <c r="D25" s="107" t="s">
-        <v>165</v>
-      </c>
-      <c r="E25" s="107" t="s">
-        <v>166</v>
-      </c>
-      <c r="F25" s="107" t="s">
-        <v>167</v>
-      </c>
-      <c r="G25" s="107" t="s">
-        <v>168</v>
-      </c>
-      <c r="H25" s="107" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" hidden="1">
-      <c r="A26" s="84" t="s">
-        <v>170</v>
-      </c>
-      <c r="D26" s="107" t="s">
-        <v>171</v>
-      </c>
-      <c r="E26" s="107" t="s">
-        <v>172</v>
-      </c>
-      <c r="F26" s="107" t="s">
-        <v>173</v>
-      </c>
-      <c r="G26" s="107" t="s">
-        <v>174</v>
-      </c>
-      <c r="H26" s="107" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="84" t="s">
-        <v>176</v>
-      </c>
-      <c r="D27" s="107"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-    </row>
-    <row r="28" spans="1:8" hidden="1">
-      <c r="A28" s="84" t="s">
-        <v>177</v>
-      </c>
-      <c r="D28" s="107"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="107"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="84" t="s">
-        <v>178</v>
-      </c>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
-    </row>
-    <row r="30" spans="1:8" hidden="1">
-      <c r="A30" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="D30" s="107"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="107"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="84" t="s">
-        <v>180</v>
-      </c>
-      <c r="D31" s="107" t="s">
-        <v>181</v>
-      </c>
-      <c r="E31" s="107" t="s">
-        <v>182</v>
-      </c>
-      <c r="F31" s="107" t="s">
-        <v>183</v>
-      </c>
-      <c r="G31" s="107" t="s">
-        <v>184</v>
-      </c>
-      <c r="H31" s="107" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" hidden="1">
-      <c r="A32" s="84" t="s">
+    <row r="37" spans="1:8">
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="D32" s="107" t="s">
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="E32" s="107" t="s">
+      <c r="D39" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="F32" s="107" t="s">
+      <c r="E39" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="G32" s="107" t="s">
+      <c r="F39" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="H32" s="107" t="s">
+      <c r="G39" s="40" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="84" t="s">
+      <c r="H39" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="D33" s="107" t="s">
+    </row>
+    <row r="40" spans="1:8" hidden="1">
+      <c r="A40" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="E33" s="107" t="s">
+      <c r="D40" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="F33" s="107" t="s">
+      <c r="E40" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="G33" s="107" t="s">
+      <c r="F40" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="H33" s="107" t="s">
+      <c r="G40" s="37" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" hidden="1">
-      <c r="A34" s="84" t="s">
+      <c r="H40" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="D34" s="107" t="s">
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="E34" s="107" t="s">
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="F34" s="107" t="s">
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="G34" s="107" t="s">
+      <c r="C46" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="H34" s="107" t="s">
+      <c r="E46" s="38" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="84" t="s">
-        <v>204</v>
-      </c>
-      <c r="D35" s="108" t="e">
-        <f t="shared" ref="D35:G35" si="5">IF(E33="", "", (100%*(D33-E33)/E33))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E35" s="108" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F35" s="108" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G35" s="108" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H35" s="108" t="str">
-        <f>IF(I33="", "", (100%*(H33-I33)/I33))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="D36" s="85"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="85"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="84" t="s">
-        <v>205</v>
-      </c>
-      <c r="D37" s="85"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="85"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="84" t="s">
-        <v>206</v>
-      </c>
-      <c r="D38" s="107" t="s">
-        <v>207</v>
-      </c>
-      <c r="E38" s="107" t="s">
-        <v>208</v>
-      </c>
-      <c r="F38" s="107" t="s">
-        <v>209</v>
-      </c>
-      <c r="G38" s="107" t="s">
-        <v>210</v>
-      </c>
-      <c r="H38" s="107" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" hidden="1">
-      <c r="A39" s="84" t="s">
-        <v>212</v>
-      </c>
-      <c r="D39" s="94" t="s">
-        <v>213</v>
-      </c>
-      <c r="E39" s="94" t="s">
-        <v>214</v>
-      </c>
-      <c r="F39" s="94" t="s">
-        <v>215</v>
-      </c>
-      <c r="G39" s="94" t="s">
-        <v>216</v>
-      </c>
-      <c r="H39" s="94" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="84" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="93" t="s">
-        <v>219</v>
-      </c>
-      <c r="B44" s="93"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="93"/>
-      <c r="E44" s="93"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="84" t="s">
-        <v>220</v>
-      </c>
-      <c r="C45" s="84" t="s">
-        <v>221</v>
-      </c>
-      <c r="E45" s="95" t="s">
-        <v>222</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="D21">
+  <phoneticPr fontId="37" type="noConversion"/>
+  <conditionalFormatting sqref="D22">
     <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
-      <formula>$D$22&lt;&gt;""</formula>
+      <formula>$D$23&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
+  <conditionalFormatting sqref="D24">
     <cfRule type="expression" dxfId="30" priority="12">
-      <formula>$D$24&lt;&gt;""</formula>
+      <formula>$D$25&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
+  <conditionalFormatting sqref="D26">
     <cfRule type="expression" dxfId="29" priority="7">
-      <formula>$D$26&lt;&gt;""</formula>
+      <formula>$D$27&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="expression" dxfId="28" priority="26">
-      <formula>$D$32&lt;&gt;""</formula>
+      <formula>$D$33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="expression" dxfId="27" priority="31" stopIfTrue="1">
-      <formula>$D$34&lt;&gt;""</formula>
+      <formula>$D$35&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
+  <conditionalFormatting sqref="D39">
     <cfRule type="expression" dxfId="26" priority="21">
-      <formula>$D$39&lt;&gt;""</formula>
+      <formula>$D$40&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:H13">
+  <conditionalFormatting sqref="D14:H14">
     <cfRule type="cellIs" dxfId="25" priority="2" operator="greaterThanOrEqual">
       <formula>"0.05"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:H14">
+  <conditionalFormatting sqref="D15:H15">
     <cfRule type="cellIs" dxfId="24" priority="1" operator="greaterThanOrEqual">
       <formula>"0.15"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E22">
     <cfRule type="expression" dxfId="23" priority="16">
-      <formula>$E$22&lt;&gt;""</formula>
+      <formula>$E$23&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
+  <conditionalFormatting sqref="E24">
     <cfRule type="expression" dxfId="22" priority="11">
-      <formula>$E$24&lt;&gt;""</formula>
+      <formula>$E$25&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
+  <conditionalFormatting sqref="E26">
     <cfRule type="expression" dxfId="21" priority="6">
-      <formula>$E$26&lt;&gt;""</formula>
+      <formula>$E$27&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="E32">
     <cfRule type="expression" dxfId="20" priority="25">
-      <formula>$E$32&lt;&gt;""</formula>
+      <formula>$E$33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
+  <conditionalFormatting sqref="E34">
     <cfRule type="expression" dxfId="19" priority="30" stopIfTrue="1">
-      <formula>$E$34&lt;&gt;""</formula>
+      <formula>$E$35&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
+  <conditionalFormatting sqref="E39">
     <cfRule type="expression" dxfId="18" priority="20">
-      <formula>$E$39&lt;&gt;""</formula>
+      <formula>$E$40&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="F22">
     <cfRule type="expression" dxfId="17" priority="15">
-      <formula>$F$22&lt;&gt;""</formula>
+      <formula>$F$23&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
+  <conditionalFormatting sqref="F24">
     <cfRule type="expression" dxfId="16" priority="10">
-      <formula>$F$24&lt;&gt;""</formula>
+      <formula>$F$25&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
+  <conditionalFormatting sqref="F26">
     <cfRule type="expression" dxfId="15" priority="5">
-      <formula>$F$26&lt;&gt;""</formula>
+      <formula>$F$27&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
+  <conditionalFormatting sqref="F32">
     <cfRule type="expression" dxfId="14" priority="24">
-      <formula>$F$32&lt;&gt;""</formula>
+      <formula>$F$33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
+  <conditionalFormatting sqref="F34">
     <cfRule type="expression" dxfId="13" priority="29" stopIfTrue="1">
-      <formula>$F$34&lt;&gt;""</formula>
+      <formula>$F$35&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
+  <conditionalFormatting sqref="F39">
     <cfRule type="expression" dxfId="12" priority="19">
-      <formula>$F$39&lt;&gt;""</formula>
+      <formula>$F$40&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
+  <conditionalFormatting sqref="G22">
     <cfRule type="expression" dxfId="11" priority="14">
-      <formula>$G$22&lt;&gt;""</formula>
+      <formula>$G$23&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
+  <conditionalFormatting sqref="G24">
     <cfRule type="expression" dxfId="10" priority="9">
-      <formula>$G$24&lt;&gt;""</formula>
+      <formula>$G$25&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
+  <conditionalFormatting sqref="G26">
     <cfRule type="expression" dxfId="9" priority="4">
-      <formula>$G$26&lt;&gt;""</formula>
+      <formula>$G$27&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
+  <conditionalFormatting sqref="G32">
     <cfRule type="expression" dxfId="8" priority="23">
-      <formula>$G$32&lt;&gt;""</formula>
+      <formula>$G$33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
+  <conditionalFormatting sqref="G34">
     <cfRule type="expression" dxfId="7" priority="28">
-      <formula>$G$34&lt;&gt;""</formula>
+      <formula>$G$35&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
+  <conditionalFormatting sqref="G39">
     <cfRule type="expression" dxfId="6" priority="18">
-      <formula>$G$39&lt;&gt;""</formula>
+      <formula>$G$40&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
+  <conditionalFormatting sqref="H22">
     <cfRule type="expression" dxfId="5" priority="13">
-      <formula>$H$22&lt;&gt;""</formula>
+      <formula>$H$23&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
+  <conditionalFormatting sqref="H24">
     <cfRule type="expression" dxfId="4" priority="8">
-      <formula>$H$24&lt;&gt;""</formula>
+      <formula>$H$25&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
+  <conditionalFormatting sqref="H26">
     <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$H$26&lt;&gt;""</formula>
+      <formula>$H$27&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
+  <conditionalFormatting sqref="H32">
     <cfRule type="expression" dxfId="2" priority="22">
-      <formula>$H$32&lt;&gt;""</formula>
+      <formula>$H$33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
+  <conditionalFormatting sqref="H34">
     <cfRule type="expression" dxfId="1" priority="27">
-      <formula>$H$34&lt;&gt;""</formula>
+      <formula>$H$35&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
+  <conditionalFormatting sqref="H39">
     <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
-      <formula>$H$39&lt;&gt;""</formula>
+      <formula>$H$40&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4133,145 +4239,145 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="25.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.81640625" style="35" customWidth="1"/>
-    <col min="5" max="16384" width="8.81640625" style="35"/>
+    <col min="1" max="1" width="25.6328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.81640625" style="20" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>66</v>
+      <c r="A1" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="37" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="37" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="37" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="37" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="37" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="37" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="37" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="37" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="105" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="105"/>
+      <c r="B13" s="100"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="105"/>
-      <c r="B14" s="105"/>
+      <c r="A14" s="100"/>
+      <c r="B14" s="100"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="105"/>
-      <c r="B15" s="105"/>
+      <c r="A15" s="100"/>
+      <c r="B15" s="100"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="105"/>
-      <c r="B16" s="105"/>
+      <c r="A16" s="100"/>
+      <c r="B16" s="100"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="105"/>
-      <c r="B17" s="105"/>
+      <c r="A17" s="100"/>
+      <c r="B17" s="100"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="105"/>
-      <c r="B18" s="105"/>
+      <c r="A18" s="100"/>
+      <c r="B18" s="100"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="105"/>
-      <c r="B19" s="105"/>
+      <c r="A19" s="100"/>
+      <c r="B19" s="100"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="105"/>
-      <c r="B20" s="105"/>
+      <c r="A20" s="100"/>
+      <c r="B20" s="100"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4289,8 +4395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -4309,43 +4415,43 @@
       <c r="G1"/>
     </row>
     <row r="2" spans="2:13">
-      <c r="B2" s="32"/>
-      <c r="C2" s="117" t="s">
-        <v>271</v>
-      </c>
-      <c r="D2" s="33" t="e">
+      <c r="B2" s="17"/>
+      <c r="C2" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="18" t="e">
         <f>C2+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E2" s="33" t="e">
+      <c r="E2" s="18" t="e">
         <f t="shared" ref="E2:L2" si="0">D2+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F2" s="33" t="e">
+      <c r="F2" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G2" s="33" t="e">
+      <c r="G2" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H2" s="33" t="e">
+      <c r="H2" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I2" s="33" t="e">
+      <c r="I2" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J2" s="33" t="e">
+      <c r="J2" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K2" s="33" t="e">
+      <c r="K2" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L2" s="33" t="e">
+      <c r="L2" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
@@ -4353,9 +4459,9 @@
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="4">
+        <v>17</v>
+      </c>
+      <c r="C3" s="45">
         <v>1</v>
       </c>
       <c r="D3" s="5">
@@ -4388,10 +4494,10 @@
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="23">
+      <c r="B4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="102">
         <f>'Định giá'!B2</f>
         <v>0</v>
       </c>
@@ -4407,10 +4513,10 @@
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="23">
+      <c r="B5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="102">
         <f>'Định giá'!B3</f>
         <v>0</v>
       </c>
@@ -4427,9 +4533,9 @@
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C6">
+        <v>219</v>
+      </c>
+      <c r="C6" s="114">
         <f>$C$4</f>
         <v>0</v>
       </c>
@@ -4470,16 +4576,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:13" s="112" customFormat="1">
-      <c r="B7" s="111" t="s">
-        <v>242</v>
-      </c>
-      <c r="C7">
+    <row r="7" spans="2:13">
+      <c r="B7" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="114">
         <f>$C$5</f>
         <v>0</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" ref="D7:H7" si="3">VALUE(C7)</f>
+        <f t="shared" ref="D7:G7" si="3">VALUE(C7)</f>
         <v>0</v>
       </c>
       <c r="E7" s="3">
@@ -4515,283 +4621,274 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:13" s="112" customFormat="1">
-      <c r="B8" s="111" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="114">
+    <row r="8" spans="2:13">
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="115">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-    </row>
-    <row r="9" spans="2:13" s="113" customFormat="1">
-      <c r="B9" s="115" t="s">
-        <v>243</v>
+    </row>
+    <row r="9" spans="2:13" s="3" customFormat="1">
+      <c r="B9" s="5" t="s">
+        <v>221</v>
       </c>
       <c r="C9" s="116">
         <f>C6/(1+$C$8)^C3</f>
         <v>0</v>
       </c>
-      <c r="D9" s="116">
+      <c r="D9" s="44">
         <f t="shared" ref="D9:L9" si="5">D6/(1+$C$8)^D3</f>
         <v>0</v>
       </c>
-      <c r="E9" s="116">
+      <c r="E9" s="44">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F9" s="116">
+      <c r="F9" s="44">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G9" s="116">
+      <c r="G9" s="44">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H9" s="116">
+      <c r="H9" s="44">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I9" s="116">
+      <c r="I9" s="44">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J9" s="116">
+      <c r="J9" s="44">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K9" s="116">
+      <c r="K9" s="44">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L9" s="116">
+      <c r="L9" s="44">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M9" s="116"/>
-    </row>
-    <row r="10" spans="2:13" s="113" customFormat="1">
-      <c r="B10" s="115" t="s">
-        <v>244</v>
+      <c r="M9" s="44"/>
+    </row>
+    <row r="10" spans="2:13" s="3" customFormat="1">
+      <c r="B10" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="C10" s="116">
         <f>C7/(1+$C$8)^C3</f>
         <v>0</v>
       </c>
-      <c r="D10" s="116">
+      <c r="D10" s="44">
         <f>D7/(1+$C$8)^D3</f>
         <v>0</v>
       </c>
-      <c r="E10" s="116">
+      <c r="E10" s="44">
         <f t="shared" ref="E10:L10" si="6">E7/(1+$C$8)^E3</f>
         <v>0</v>
       </c>
-      <c r="F10" s="116">
+      <c r="F10" s="44">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G10" s="116">
+      <c r="G10" s="44">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H10" s="116">
+      <c r="H10" s="44">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I10" s="116">
+      <c r="I10" s="44">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J10" s="116">
+      <c r="J10" s="44">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K10" s="116">
+      <c r="K10" s="44">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L10" s="116">
+      <c r="L10" s="44">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M10" s="116"/>
+      <c r="M10" s="44"/>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="22" t="str">
+      <c r="B11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="101" t="str">
         <f>'Định giá'!B4</f>
         <v>#DGVCSHValQ0</v>
       </c>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="23" t="str">
+      <c r="B12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="102" t="str">
         <f>'Định giá'!B7</f>
         <v>#DGTSLCPVal</v>
       </c>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="25" t="str">
+      <c r="B13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="103" t="str">
         <f>'Định giá'!B5</f>
         <v>#DGTLCTVal</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="50">
-      <c r="B14" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="24" t="str">
+      <c r="B14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="117" t="str">
         <f>'Định giá'!B6</f>
         <v>#DGTGCPVal</v>
       </c>
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C15" s="6" t="e">
+        <v>224</v>
+      </c>
+      <c r="C15" s="118" t="e">
         <f>((C9+D9+E9+F9+G9+H9+I9+J9+K9+L9)+C11)*(1-0.1*3.14)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="C16" s="6" t="e">
+        <v>223</v>
+      </c>
+      <c r="C16" s="118" t="e">
         <f>((C10+D10+E10+F10+G10+H10+I10+J10+K10+L10)+C11)*(1-0.1*3.14)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="50">
       <c r="B17" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C17" s="26" t="e">
+        <v>226</v>
+      </c>
+      <c r="C17" s="119" t="e">
         <f>(C15*1000000000)/($C$12*1000000)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="50">
       <c r="B18" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C18" s="26" t="e">
+        <v>225</v>
+      </c>
+      <c r="C18" s="119" t="e">
         <f>(C16*1000000000)/($C$12*1000000)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C19" s="7" t="e">
+        <v>227</v>
+      </c>
+      <c r="C19" s="120" t="e">
         <f>C58</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C20" s="7" t="e">
+        <v>228</v>
+      </c>
+      <c r="C20" s="120" t="e">
         <f>C59</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="21" spans="2:12" s="1" customFormat="1">
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
     </row>
     <row r="22" spans="2:12" ht="50">
-      <c r="B22" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="C22" s="29" t="e">
+      <c r="B22" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C22" s="122" t="e">
         <f>C17/$C$14-1</f>
         <v>#VALUE!</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="50">
-      <c r="B23" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="C23" s="29" t="e">
+      <c r="B23" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C23" s="122" t="e">
         <f>C18/$C$14-1</f>
         <v>#VALUE!</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="50">
-      <c r="B24" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="29" t="e">
+      <c r="B24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="122" t="e">
         <f>0.95*C13*10000/C14</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="50">
-      <c r="B25" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="C25" s="29" t="e">
+      <c r="B25" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C25" s="122" t="e">
         <f>C19/C17-1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="50">
-      <c r="B26" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="C26" s="29" t="e">
+      <c r="B26" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C26" s="122" t="e">
         <f>C20/C18-1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="50">
-      <c r="B27" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="C27" s="28" t="e">
+      <c r="B27" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C27" s="123" t="e">
         <f>C22+$C$24+C25</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="50">
-      <c r="B28" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="C28" s="28" t="e">
+      <c r="B28" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="C28" s="123" t="e">
         <f>C23+$C$24+C26</f>
         <v>#VALUE!</v>
       </c>
@@ -4800,197 +4897,201 @@
     <row r="31" spans="2:12" s="2" customFormat="1"/>
     <row r="32" spans="2:12" s="2" customFormat="1">
       <c r="B32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="12" t="str">
+        <v>14</v>
+      </c>
+      <c r="C32" s="104" t="str">
         <f>C13</f>
         <v>#DGTLCTVal</v>
       </c>
     </row>
     <row r="33" spans="2:12" s="2" customFormat="1">
       <c r="B33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="2" t="e">
+        <v>15</v>
+      </c>
+      <c r="C33" s="105" t="e">
         <f>C32*10*C12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D33" s="13"/>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="2:12" s="2" customFormat="1">
       <c r="B34" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C34" s="2" t="e">
+        <v>231</v>
+      </c>
+      <c r="C34" s="105" t="e">
         <f>C6-$C$33</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="35" spans="2:12" s="2" customFormat="1">
       <c r="B35" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C35" s="2" t="e">
+        <v>241</v>
+      </c>
+      <c r="C35" s="105" t="e">
         <f>C7-$C$33</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="36" spans="2:12" s="2" customFormat="1">
-      <c r="B36" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="C36" s="14" t="e">
+      <c r="B36" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C36" s="106" t="e">
         <f>C34+$C$11</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="37" spans="2:12" s="2" customFormat="1">
-      <c r="B37" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="C37" s="14" t="e">
+      <c r="B37" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C37" s="106" t="e">
         <f>C35+$C$11</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="38" spans="2:12" s="2" customFormat="1">
       <c r="B38" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C38" s="15" t="e">
+        <v>233</v>
+      </c>
+      <c r="C38" s="107" t="e">
         <f>C6/$C$11</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="39" spans="2:12" s="2" customFormat="1">
       <c r="B39" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C39" s="15" t="e">
+        <v>243</v>
+      </c>
+      <c r="C39" s="107" t="e">
         <f>C7/$C$11</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="40" spans="2:12" s="2" customFormat="1">
       <c r="B40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="16" t="e">
+        <v>16</v>
+      </c>
+      <c r="C40" s="108" t="e">
         <f>C38*C34</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="41" spans="2:12" s="2" customFormat="1">
       <c r="B41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="16" t="e">
+        <v>16</v>
+      </c>
+      <c r="C41" s="108" t="e">
         <f>C39*C35</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="42" spans="2:12" s="2" customFormat="1">
-      <c r="B42" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="C42" s="17" t="e">
+      <c r="B42" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C42" s="109" t="e">
         <f>C40+C6</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="43" spans="2:12" s="2" customFormat="1">
-      <c r="B43" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="C43" s="17" t="e">
+      <c r="B43" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C43" s="109" t="e">
         <f>C41+C7</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="44" spans="2:12" s="2" customFormat="1"/>
-    <row r="45" spans="2:12" s="2" customFormat="1"/>
+    <row r="44" spans="2:12" s="2" customFormat="1">
+      <c r="C44" s="105"/>
+    </row>
+    <row r="45" spans="2:12" s="2" customFormat="1">
+      <c r="C45" s="105"/>
+    </row>
     <row r="46" spans="2:12" s="2" customFormat="1">
-      <c r="C46" s="34">
+      <c r="C46" s="110">
         <f ca="1">YEAR("01/01/"&amp;YEAR(TODAY()) + 1)</f>
         <v>2025</v>
       </c>
-      <c r="D46" s="34">
+      <c r="D46" s="19">
         <f t="shared" ref="D46:L46" ca="1" si="7">C46 + 1</f>
         <v>2026</v>
       </c>
-      <c r="E46" s="34">
+      <c r="E46" s="19">
         <f t="shared" ca="1" si="7"/>
         <v>2027</v>
       </c>
-      <c r="F46" s="34">
+      <c r="F46" s="19">
         <f t="shared" ca="1" si="7"/>
         <v>2028</v>
       </c>
-      <c r="G46" s="34">
+      <c r="G46" s="19">
         <f t="shared" ca="1" si="7"/>
         <v>2029</v>
       </c>
-      <c r="H46" s="34">
+      <c r="H46" s="19">
         <f t="shared" ca="1" si="7"/>
         <v>2030</v>
       </c>
-      <c r="I46" s="34">
+      <c r="I46" s="19">
         <f t="shared" ca="1" si="7"/>
         <v>2031</v>
       </c>
-      <c r="J46" s="34">
+      <c r="J46" s="19">
         <f t="shared" ca="1" si="7"/>
         <v>2032</v>
       </c>
-      <c r="K46" s="34">
+      <c r="K46" s="19">
         <f t="shared" ca="1" si="7"/>
         <v>2033</v>
       </c>
-      <c r="L46" s="34">
+      <c r="L46" s="19">
         <f t="shared" ca="1" si="7"/>
         <v>2034</v>
       </c>
     </row>
     <row r="47" spans="2:12" s="2" customFormat="1">
-      <c r="B47" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="14">
+      <c r="B47" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="106">
         <v>1</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D47" s="10">
         <v>2</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E47" s="10">
         <v>3</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F47" s="10">
         <v>4</v>
       </c>
-      <c r="G47" s="14">
+      <c r="G47" s="10">
         <v>5</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H47" s="10">
         <v>6</v>
       </c>
-      <c r="I47" s="14">
+      <c r="I47" s="10">
         <v>7</v>
       </c>
-      <c r="J47" s="14">
+      <c r="J47" s="10">
         <v>8</v>
       </c>
-      <c r="K47" s="14">
+      <c r="K47" s="10">
         <v>9</v>
       </c>
-      <c r="L47" s="14">
+      <c r="L47" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="2:12" s="2" customFormat="1">
-      <c r="B48" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="C48" s="16" t="e">
+      <c r="B48" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C48" s="108" t="e">
         <f>C42</f>
         <v>#VALUE!</v>
       </c>
@@ -5032,10 +5133,10 @@
       </c>
     </row>
     <row r="49" spans="2:13" s="2" customFormat="1">
-      <c r="B49" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="C49" s="16" t="e">
+      <c r="B49" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C49" s="108" t="e">
         <f>C43</f>
         <v>#VALUE!</v>
       </c>
@@ -5077,164 +5178,164 @@
       </c>
     </row>
     <row r="50" spans="2:13" s="2" customFormat="1">
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="111">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" s="2" customFormat="1">
+      <c r="B51" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C51" s="108" t="e">
+        <f>C48/(1+$C$8)^C47</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D51" s="11" t="e">
+        <f t="shared" ref="D51:L51" si="16">D48/(1+$C$8)^D47</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E51" s="11" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F51" s="11" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G51" s="11" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H51" s="11" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I51" s="11" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J51" s="11" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K51" s="11" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L51" s="11" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M51" s="11"/>
+    </row>
+    <row r="52" spans="2:13" s="2" customFormat="1">
+      <c r="B52" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C52" s="108" t="e">
+        <f>C49/(1+$C$8)^C47</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D52" s="11" t="e">
+        <f>D49/(1+$C$8)^D47</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E52" s="11" t="e">
+        <f t="shared" ref="E52:L52" si="17">E49/(1+$C$8)^E47</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F52" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G52" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H52" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I52" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J52" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K52" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L52" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M52" s="11"/>
+    </row>
+    <row r="53" spans="2:13" s="2" customFormat="1">
+      <c r="B53" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C53" s="106" t="e">
+        <f>C36</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" s="2" customFormat="1">
+      <c r="B54" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C54" s="106" t="e">
+        <f>C37</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" s="2" customFormat="1">
+      <c r="B55" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="18">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" s="2" customFormat="1">
-      <c r="B51" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="C51" s="16" t="e">
-        <f>C48/(1+$C$8)^C47</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D51" s="16" t="e">
-        <f t="shared" ref="D51:L51" si="16">D48/(1+$C$8)^D47</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E51" s="16" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F51" s="16" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G51" s="16" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H51" s="16" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I51" s="16" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J51" s="16" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K51" s="16" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L51" s="16" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M51" s="16"/>
-    </row>
-    <row r="52" spans="2:13" s="2" customFormat="1">
-      <c r="B52" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="C52" s="16" t="e">
-        <f>C49/(1+$C$8)^C47</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D52" s="16" t="e">
-        <f>D49/(1+$C$8)^D47</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E52" s="16" t="e">
-        <f t="shared" ref="E52:L52" si="17">E49/(1+$C$8)^E47</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F52" s="16" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G52" s="16" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H52" s="16" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I52" s="16" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J52" s="16" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K52" s="16" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L52" s="16" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M52" s="16"/>
-    </row>
-    <row r="53" spans="2:13" s="2" customFormat="1">
-      <c r="B53" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="C53" s="14" t="e">
-        <f>C36</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" s="2" customFormat="1">
-      <c r="B54" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="C54" s="14" t="e">
-        <f>C37</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" s="2" customFormat="1">
-      <c r="B55" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" s="2" t="str">
+      <c r="C55" s="105" t="str">
         <f>C12</f>
         <v>#DGTSLCPVal</v>
       </c>
     </row>
     <row r="56" spans="2:13" s="2" customFormat="1" ht="66.5">
-      <c r="B56" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="C56" s="19" t="e">
+      <c r="B56" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C56" s="112" t="e">
         <f>((C51+D51+E51+F51+G51+H51+I51+J51+K51+L51)+C53)*(1-0.1*3.14)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="57" spans="2:13" s="2" customFormat="1" ht="66.5">
-      <c r="B57" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="C57" s="19" t="e">
+      <c r="B57" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C57" s="112" t="e">
         <f>((C52+D52+E52+F52+G52+H52+I52+J52+K52+L52)+C54)*(1-0.1*3.14)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="58" spans="2:13" s="2" customFormat="1" ht="66.5">
-      <c r="B58" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="C58" s="20" t="e">
+      <c r="B58" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C58" s="113" t="e">
         <f>(C56*1000000000)/($C$55*1000000)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="59" spans="2:13" s="2" customFormat="1" ht="66.5">
-      <c r="B59" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="C59" s="20" t="e">
+      <c r="B59" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C59" s="113" t="e">
         <f>(C57*1000000000)/($C$55*1000000)</f>
         <v>#VALUE!</v>
       </c>

--- a/website/file/template_final.xlsx
+++ b/website/file/template_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\tienpd3.github.io\website\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC581B5F-CBDD-4D4D-A73F-DF7594D21758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076F2F29-D4B0-43BF-8D1E-B79DFD9E7B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HƯỚNG DẪN" sheetId="8" state="hidden" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Xu hướng ngành'!$A$1:$B$20</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,6 +37,28 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="274">
   <si>
@@ -239,34 +261,6 @@
   </si>
   <si>
     <t>TIÊU CHUẨN ĐỊNH GIÁ DOANH NGHIỆP TỐT</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Doanh thu tăng đều </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(Đạt = 1, Không đạt = 0)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lợi nhuận gộp tăng đều  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">(Đạt=1, Không đạt = 0)  </t>
-    </r>
   </si>
   <si>
     <r>
@@ -294,39 +288,6 @@
         <family val="1"/>
       </rPr>
       <t>(Đạt = 1, Không đạt = 0)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">VCSH tăng đều </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(Đạt=1, Không đạt = 0)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>#QFY1 ~ #QFY4: #CVCSH</t>
     </r>
   </si>
   <si>
@@ -965,6 +926,85 @@
   <si>
     <t>EPS</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">VCSH tăng đều </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Đạt=1, Không đạt = 0)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>#DGQ0 ~ #DGQ3: #DGArrayVCSHVal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lợi nhuận gộp tăng đều  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(Đạt=1, Không đạt = 0)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>#DGQ0 ~ #DGQ3: #DGArrayLNGVal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Doanh thu tăng đều </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(Đạt = 1, Không đạt = 0)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>#DGQ0 ~ #DGQ3: #DGArrayDTTVal</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -983,7 +1023,7 @@
     <numFmt numFmtId="172" formatCode="#,##0.00\ &quot;triệu&quot;"/>
     <numFmt numFmtId="173" formatCode="#,##0\ &quot;đồng&quot;"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1258,6 +1298,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1634,7 +1679,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1839,89 +1884,92 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="27" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="17" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1933,6 +1981,69 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="55">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -2377,69 +2488,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
@@ -2458,11 +2506,70 @@
 </styleSheet>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <fb t="e">#NAME?</fb>
+    <v>4</v>
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:B12" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:B12" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nhóm ngành" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="P/E" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nhóm ngành" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="P/E" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2818,8 +2925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="75" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="75" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2833,29 +2940,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="125"/>
+      <c r="B1" s="124"/>
       <c r="C1" s="46"/>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="98"/>
+      <c r="E1" s="121"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="61" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B2" s="92">
         <f>E2</f>
         <v>0</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E2" s="49">
         <f>SUM(D3:D6)</f>
@@ -2864,17 +2971,17 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="61" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B3" s="92">
         <f>E3</f>
         <v>0</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E3" s="49">
         <f>SUM(D2:D5)</f>
@@ -2883,16 +2990,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="90" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B4" s="93" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E4" s="46"/>
     </row>
@@ -2901,37 +3008,37 @@
         <v>8</v>
       </c>
       <c r="B5" s="94" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E5" s="46"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="90" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B6" s="95" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E6" s="46"/>
     </row>
     <row r="7" spans="1:5" ht="14.5" thickBot="1">
       <c r="A7" s="90" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B7" s="96" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C7" s="46"/>
       <c r="D7" s="50"/>
@@ -2940,17 +3047,17 @@
     <row r="8" spans="1:5" ht="14.5" thickBot="1">
       <c r="A8" s="91"/>
       <c r="B8" s="70" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D8" s="50"/>
       <c r="E8" s="46"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="71" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B9" s="72" t="e">
         <f>Hidden!C18</f>
@@ -2979,14 +3086,14 @@
         <f>Hidden!C22</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D10" s="99" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="99"/>
+      <c r="D10" s="122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="122"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="63" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B11" s="88" t="e">
         <f>Hidden!C24</f>
@@ -2996,8 +3103,8 @@
         <f>Hidden!C24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="63" t="s">
@@ -3011,23 +3118,23 @@
         <f>Hidden!C25</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="74" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="75" t="e">
+        <f>Hidden!C28</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C13" s="76" t="e">
         <f>Hidden!C27</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C13" s="76" t="e">
-        <f>Hidden!C28</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
     </row>
     <row r="14" spans="1:5" ht="14.5" thickBot="1">
       <c r="A14" s="64" t="s">
@@ -3042,7 +3149,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E14" s="46"/>
     </row>
@@ -3062,26 +3169,26 @@
       </c>
       <c r="E15" s="46"/>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="57" t="s">
-        <v>67</v>
+    <row r="16" spans="1:5" ht="24">
+      <c r="A16" s="126" t="s">
+        <v>273</v>
       </c>
       <c r="B16" s="80" t="s">
-        <v>258</v>
-      </c>
-      <c r="C16" s="84" t="e">
-        <f>IF(B16="N/A", "N/A", _xlfn.IFS(B16=1,"YES",B16=0,"NO"))</f>
-        <v>#N/A</v>
+        <v>255</v>
+      </c>
+      <c r="C16" s="84" t="e" vm="1">
+        <f ca="1">IF(B16="N/A", "N/A", _xlfn.IFS(B16=1,"YES",B16=0,"NO"))</f>
+        <v>#NAME?</v>
       </c>
       <c r="D16" s="46"/>
       <c r="E16" s="46"/>
     </row>
-    <row r="17" spans="1:5" s="24" customFormat="1">
-      <c r="A17" s="57" t="s">
-        <v>68</v>
+    <row r="17" spans="1:5" s="24" customFormat="1" ht="24">
+      <c r="A17" s="126" t="s">
+        <v>272</v>
       </c>
       <c r="B17" s="97" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C17" s="85" t="e">
         <f>IF(B17="N/A", "N/A", _xlfn.IFS(B17=1,"YES",B17=0,"NO"))</f>
@@ -3092,10 +3199,10 @@
     </row>
     <row r="18" spans="1:5" ht="23.5">
       <c r="A18" s="58" t="s">
-        <v>71</v>
+        <v>271</v>
       </c>
       <c r="B18" s="81" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C18" s="85" t="e">
         <f>IF(B18="N/A", "N/A", _xlfn.IFS(B18=1,"YES",B18=0,"NO"))</f>
@@ -3109,7 +3216,7 @@
         <v>36</v>
       </c>
       <c r="B19" s="82" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C19" s="85" t="str">
         <f>IF(B19="N/A", "N/A", _xlfn.IFS(B19&gt;=15,"YES",B19&lt;15,"NO"))</f>
@@ -3123,7 +3230,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="82" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C20" s="85" t="str">
         <f>IF(B20="N/A", "N/A", _xlfn.IFS(B20&gt;=5,"YES",B20&lt;5,"NO"))</f>
@@ -3137,7 +3244,7 @@
         <v>30</v>
       </c>
       <c r="B21" s="82" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C21" s="85" t="str">
         <f>IF(B21="N/A", "N/A", _xlfn.IFS(B21&gt;=5,"YES",B21&lt;5,"NO"))</f>
@@ -3151,7 +3258,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="82" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C22" s="85" t="str">
         <f>IF(B22="N/A", "N/A", _xlfn.IFS(B22&gt;=15,"YES",B22&lt;15,"NO"))</f>
@@ -3165,7 +3272,7 @@
         <v>32</v>
       </c>
       <c r="B23" s="82" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C23" s="85" t="str">
         <f>IF(B23="N/A", "N/A", _xlfn.IFS(B23&gt;=10,"YES",B23&lt;10,"NO"))</f>
@@ -3179,7 +3286,7 @@
         <v>33</v>
       </c>
       <c r="B24" s="82" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C24" s="85" t="str">
         <f>IF(B24="N/A", "N/A", _xlfn.IFS(B24&lt;=1,"YES",B24&gt;1,"NO"))</f>
@@ -3193,7 +3300,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="82" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C25" s="85" t="str">
         <f>IF(B25="N/A", "N/A", _xlfn.IFS(B25&lt;=15,"YES",B25&gt;15,"NO"))</f>
@@ -3207,7 +3314,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="82" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C26" s="85" t="str">
         <f>IF(B26="N/A", "N/A", _xlfn.IFS(B26&lt;=2,"YES",B26&gt;2,"NO"))</f>
@@ -3218,7 +3325,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="57" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B27" s="81" t="s">
         <v>25</v>
@@ -3232,7 +3339,7 @@
     </row>
     <row r="28" spans="1:5" ht="23.5">
       <c r="A28" s="59" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B28" s="81" t="s">
         <v>24</v>
@@ -3246,10 +3353,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="57" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B29" s="81" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C29" s="85" t="e">
         <f>IF(B29="N/A", "N/A", _xlfn.IFS(B29=1,"YES",B29=0,"NO"))</f>
@@ -3260,10 +3367,10 @@
     </row>
     <row r="30" spans="1:5" ht="14.5" thickBot="1">
       <c r="A30" s="60" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B30" s="83" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C30" s="86" t="str">
         <f>IF(B30="N/A", "N/A", IF(AND(0&lt;=B30, B30&lt;=5),"YES", "NO"))</f>
@@ -3284,67 +3391,67 @@
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <conditionalFormatting sqref="B10:C13">
-    <cfRule type="cellIs" dxfId="50" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:C14">
-    <cfRule type="containsText" dxfId="49" priority="7" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="53" priority="7" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="8" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="52" priority="8" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="9" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="51" priority="9" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="10" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="50" priority="10" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="11" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="49" priority="11" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="12" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="48" priority="12" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",B14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C30">
-    <cfRule type="containsText" dxfId="43" priority="34" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="47" priority="34" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="35" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="46" priority="35" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="36" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="45" priority="36" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="37" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="44" priority="37" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="38" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="43" priority="38" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="42" priority="39" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",D15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="2" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="40" priority="2" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",D15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",D15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="4" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",D15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",D15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",D15)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3357,8 +3464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D72A67F-DFF9-437F-9E79-D965885C7F31}">
   <dimension ref="A4:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H36" sqref="D36:H36"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.81640625" defaultRowHeight="15.5"/>
@@ -3374,10 +3481,10 @@
   <sheetData>
     <row r="4" spans="1:10">
       <c r="A4" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -3387,7 +3494,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B6" s="29"/>
       <c r="D6" s="30"/>
@@ -3398,51 +3505,51 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="27" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D7" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="H7" s="28" t="s">
         <v>78</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="27" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B8" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="G8" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="H8" s="42" t="s">
         <v>85</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>88</v>
       </c>
       <c r="I8" s="42"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D9" s="41" t="e">
         <f t="shared" ref="D9:G9" si="0">IF(E8="", "", (100%*(D8-E8)/E8) + VALUE(E9))</f>
@@ -3467,10 +3574,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
@@ -3480,7 +3587,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="27" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
@@ -3490,57 +3597,57 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="F12" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="G12" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="H12" s="42" t="s">
         <v>96</v>
-      </c>
-      <c r="F12" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="G12" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" s="42" t="s">
-        <v>99</v>
       </c>
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="F13" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="G13" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="H13" s="42" t="s">
         <v>103</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G13" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="H13" s="42" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="27" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D14" s="43" t="e">
         <f>(D39/D22)</f>
@@ -3565,10 +3672,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="27" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D15" s="43" t="e">
         <f>(D39/D26)</f>
@@ -3593,10 +3700,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D16" s="43" t="e">
         <f>(D39/D32)</f>
@@ -3621,10 +3728,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="27" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D17" s="43" t="e">
         <f>(D34/D32)</f>
@@ -3649,10 +3756,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="27" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D18" s="43" t="e">
         <f>(D24/D26)</f>
@@ -3677,10 +3784,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="27" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D19" s="43" t="e">
         <f>(D24/D22)</f>
@@ -3705,7 +3812,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="36" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
@@ -3715,132 +3822,132 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="27" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="G22" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="H22" s="40" t="s">
         <v>123</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="G22" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="H22" s="40" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:8" hidden="1">
       <c r="A23" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="G23" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="H23" s="39" t="s">
         <v>129</v>
-      </c>
-      <c r="F23" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="H23" s="39" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="G24" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="H24" s="40" t="s">
         <v>135</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="H24" s="40" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:8" hidden="1">
       <c r="A25" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="G25" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="H25" s="40" t="s">
         <v>141</v>
-      </c>
-      <c r="F25" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G25" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="H25" s="40" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="G26" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="H26" s="40" t="s">
         <v>147</v>
-      </c>
-      <c r="F26" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="G26" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="H26" s="40" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:8" hidden="1">
       <c r="A27" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="G27" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="H27" s="40" t="s">
         <v>153</v>
-      </c>
-      <c r="F27" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="G27" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="H27" s="40" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="27" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D28" s="40"/>
       <c r="E28" s="40"/>
@@ -3850,7 +3957,7 @@
     </row>
     <row r="29" spans="1:8" hidden="1">
       <c r="A29" s="27" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D29" s="40"/>
       <c r="E29" s="40"/>
@@ -3860,7 +3967,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="27" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D30" s="40"/>
       <c r="E30" s="40"/>
@@ -3870,7 +3977,7 @@
     </row>
     <row r="31" spans="1:8" hidden="1">
       <c r="A31" s="27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D31" s="40"/>
       <c r="E31" s="40"/>
@@ -3880,87 +3987,87 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="G32" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="E32" s="40" t="s">
+      <c r="H32" s="40" t="s">
         <v>163</v>
-      </c>
-      <c r="F32" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="G32" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="H32" s="40" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:8" hidden="1">
       <c r="A33" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="F33" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="G33" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="H33" s="40" t="s">
         <v>169</v>
-      </c>
-      <c r="F33" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="G33" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="H33" s="40" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="F34" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="D34" s="40" t="s">
+      <c r="G34" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="E34" s="40" t="s">
+      <c r="H34" s="40" t="s">
         <v>175</v>
-      </c>
-      <c r="F34" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="G34" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="H34" s="40" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:8" hidden="1">
       <c r="A35" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="F35" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="D35" s="40" t="s">
+      <c r="G35" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="E35" s="40" t="s">
+      <c r="H35" s="40" t="s">
         <v>181</v>
-      </c>
-      <c r="F35" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="G35" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="H35" s="40" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="27" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D36" s="41" t="e">
         <f t="shared" ref="D36:G36" si="5">IF(E34="", "", (100%*(D34-E34)/E34) + VALUE(E36))</f>
@@ -3992,7 +4099,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="27" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D38" s="28"/>
       <c r="E38" s="28"/>
@@ -4002,52 +4109,52 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="F39" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="D39" s="40" t="s">
+      <c r="G39" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="E39" s="40" t="s">
+      <c r="H39" s="40" t="s">
         <v>189</v>
-      </c>
-      <c r="F39" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="G39" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="H39" s="40" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:8" hidden="1">
       <c r="A40" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="F40" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="D40" s="37" t="s">
+      <c r="G40" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="E40" s="37" t="s">
+      <c r="H40" s="37" t="s">
         <v>195</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="G40" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="H40" s="37" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="27" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -4056,174 +4163,174 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="27" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="37" type="noConversion"/>
   <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="32" stopIfTrue="1">
       <formula>$D$23&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="30" priority="12">
+    <cfRule type="expression" dxfId="34" priority="12">
       <formula>$D$25&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="29" priority="7">
+    <cfRule type="expression" dxfId="33" priority="7">
       <formula>$D$27&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="28" priority="26">
+    <cfRule type="expression" dxfId="32" priority="26">
       <formula>$D$33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="27" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="31" stopIfTrue="1">
       <formula>$D$35&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="26" priority="21">
+    <cfRule type="expression" dxfId="30" priority="21">
       <formula>$D$40&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:H14">
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="greaterThanOrEqual">
       <formula>"0.05"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:H15">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="greaterThanOrEqual">
       <formula>"0.15"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="23" priority="16">
+    <cfRule type="expression" dxfId="27" priority="16">
       <formula>$E$23&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="22" priority="11">
+    <cfRule type="expression" dxfId="26" priority="11">
       <formula>$E$25&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="21" priority="6">
+    <cfRule type="expression" dxfId="25" priority="6">
       <formula>$E$27&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="20" priority="25">
+    <cfRule type="expression" dxfId="24" priority="25">
       <formula>$E$33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="19" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="30" stopIfTrue="1">
       <formula>$E$35&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="expression" dxfId="18" priority="20">
+    <cfRule type="expression" dxfId="22" priority="20">
       <formula>$E$40&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="expression" dxfId="17" priority="15">
+    <cfRule type="expression" dxfId="21" priority="15">
       <formula>$F$23&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="16" priority="10">
+    <cfRule type="expression" dxfId="20" priority="10">
       <formula>$F$25&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>$F$27&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="expression" dxfId="14" priority="24">
+    <cfRule type="expression" dxfId="18" priority="24">
       <formula>$F$33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="expression" dxfId="13" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="29" stopIfTrue="1">
       <formula>$F$35&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="expression" dxfId="12" priority="19">
+    <cfRule type="expression" dxfId="16" priority="19">
       <formula>$F$40&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="11" priority="14">
+    <cfRule type="expression" dxfId="15" priority="14">
       <formula>$G$23&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="14" priority="9">
       <formula>$G$25&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>$G$27&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="expression" dxfId="8" priority="23">
+    <cfRule type="expression" dxfId="12" priority="23">
       <formula>$G$33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="7" priority="28">
+    <cfRule type="expression" dxfId="11" priority="28">
       <formula>$G$35&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="expression" dxfId="6" priority="18">
+    <cfRule type="expression" dxfId="10" priority="18">
       <formula>$G$40&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="5" priority="13">
+    <cfRule type="expression" dxfId="9" priority="13">
       <formula>$H$23&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>$H$25&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>$H$27&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="2" priority="22">
+    <cfRule type="expression" dxfId="6" priority="22">
       <formula>$H$33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="expression" dxfId="1" priority="27">
+    <cfRule type="expression" dxfId="5" priority="27">
       <formula>$H$35&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="17" stopIfTrue="1">
       <formula>$H$40&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4235,7 +4342,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13"/>
   <cols>
@@ -4342,38 +4451,38 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="100" t="s">
+      <c r="A13" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="100"/>
+      <c r="B13" s="125"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="100"/>
-      <c r="B14" s="100"/>
+      <c r="A14" s="125"/>
+      <c r="B14" s="125"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="100"/>
-      <c r="B15" s="100"/>
+      <c r="A15" s="125"/>
+      <c r="B15" s="125"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="100"/>
-      <c r="B16" s="100"/>
+      <c r="A16" s="125"/>
+      <c r="B16" s="125"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="100"/>
-      <c r="B17" s="100"/>
+      <c r="A17" s="125"/>
+      <c r="B17" s="125"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="100"/>
-      <c r="B18" s="100"/>
+      <c r="A18" s="125"/>
+      <c r="B18" s="125"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="100"/>
-      <c r="B19" s="100"/>
+      <c r="A19" s="125"/>
+      <c r="B19" s="125"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="100"/>
-      <c r="B20" s="100"/>
+      <c r="A20" s="125"/>
+      <c r="B20" s="125"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="23"/>
@@ -4395,8 +4504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:M59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -4417,7 +4526,7 @@
     <row r="2" spans="2:13">
       <c r="B2" s="17"/>
       <c r="C2" s="45" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D2" s="18" t="e">
         <f>C2+1</f>
@@ -4497,7 +4606,7 @@
       <c r="B4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="102">
+      <c r="C4" s="99">
         <f>'Định giá'!B2</f>
         <v>0</v>
       </c>
@@ -4516,7 +4625,7 @@
       <c r="B5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="102">
+      <c r="C5" s="99">
         <f>'Định giá'!B3</f>
         <v>0</v>
       </c>
@@ -4533,9 +4642,9 @@
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C6" s="114">
+        <v>216</v>
+      </c>
+      <c r="C6" s="111">
         <f>$C$4</f>
         <v>0</v>
       </c>
@@ -4578,9 +4687,9 @@
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C7" s="114">
+        <v>217</v>
+      </c>
+      <c r="C7" s="111">
         <f>$C$5</f>
         <v>0</v>
       </c>
@@ -4625,15 +4734,15 @@
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="115">
+      <c r="C8" s="112">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="9" spans="2:13" s="3" customFormat="1">
       <c r="B9" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C9" s="116">
+        <v>218</v>
+      </c>
+      <c r="C9" s="113">
         <f>C6/(1+$C$8)^C3</f>
         <v>0</v>
       </c>
@@ -4677,9 +4786,9 @@
     </row>
     <row r="10" spans="2:13" s="3" customFormat="1">
       <c r="B10" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C10" s="116">
+        <v>219</v>
+      </c>
+      <c r="C10" s="113">
         <f>C7/(1+$C$8)^C3</f>
         <v>0</v>
       </c>
@@ -4725,7 +4834,7 @@
       <c r="B11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="101" t="str">
+      <c r="C11" s="98" t="str">
         <f>'Định giá'!B4</f>
         <v>#DGVCSHValQ0</v>
       </c>
@@ -4734,7 +4843,7 @@
       <c r="B12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="102" t="str">
+      <c r="C12" s="99" t="str">
         <f>'Định giá'!B7</f>
         <v>#DGTSLCPVal</v>
       </c>
@@ -4743,7 +4852,7 @@
       <c r="B13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="103" t="str">
+      <c r="C13" s="100" t="str">
         <f>'Định giá'!B5</f>
         <v>#DGTLCTVal</v>
       </c>
@@ -4752,68 +4861,68 @@
       <c r="B14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="117" t="str">
+      <c r="C14" s="114" t="str">
         <f>'Định giá'!B6</f>
         <v>#DGTGCPVal</v>
       </c>
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C15" s="118" t="e">
+        <v>221</v>
+      </c>
+      <c r="C15" s="115" t="e">
         <f>((C9+D9+E9+F9+G9+H9+I9+J9+K9+L9)+C11)*(1-0.1*3.14)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C16" s="118" t="e">
+        <v>220</v>
+      </c>
+      <c r="C16" s="115" t="e">
         <f>((C10+D10+E10+F10+G10+H10+I10+J10+K10+L10)+C11)*(1-0.1*3.14)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="50">
       <c r="B17" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C17" s="119" t="e">
+        <v>223</v>
+      </c>
+      <c r="C17" s="116" t="e">
         <f>(C15*1000000000)/($C$12*1000000)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="50">
       <c r="B18" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C18" s="119" t="e">
+        <v>222</v>
+      </c>
+      <c r="C18" s="116" t="e">
         <f>(C16*1000000000)/($C$12*1000000)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C19" s="120" t="e">
+        <v>224</v>
+      </c>
+      <c r="C19" s="117" t="e">
         <f>C58</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C20" s="120" t="e">
+        <v>225</v>
+      </c>
+      <c r="C20" s="117" t="e">
         <f>C59</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="21" spans="2:12" s="1" customFormat="1">
       <c r="B21" s="6"/>
-      <c r="C21" s="121"/>
+      <c r="C21" s="118"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -4826,9 +4935,9 @@
     </row>
     <row r="22" spans="2:12" ht="50">
       <c r="B22" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C22" s="122" t="e">
+        <v>226</v>
+      </c>
+      <c r="C22" s="119" t="e">
         <f>C17/$C$14-1</f>
         <v>#VALUE!</v>
       </c>
@@ -4838,9 +4947,9 @@
     </row>
     <row r="23" spans="2:12" ht="50">
       <c r="B23" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C23" s="122" t="e">
+        <v>234</v>
+      </c>
+      <c r="C23" s="119" t="e">
         <f>C18/$C$14-1</f>
         <v>#VALUE!</v>
       </c>
@@ -4852,43 +4961,43 @@
       <c r="B24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="122" t="e">
+      <c r="C24" s="119" t="e">
         <f>0.95*C13*10000/C14</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="50">
       <c r="B25" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C25" s="122" t="e">
+        <v>227</v>
+      </c>
+      <c r="C25" s="119" t="e">
         <f>C19/C17-1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="50">
       <c r="B26" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C26" s="122" t="e">
+        <v>235</v>
+      </c>
+      <c r="C26" s="119" t="e">
         <f>C20/C18-1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="50">
       <c r="B27" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="C27" s="123" t="e">
+        <v>237</v>
+      </c>
+      <c r="C27" s="120" t="e">
         <f>C22+$C$24+C25</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="50">
       <c r="B28" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="C28" s="123" t="e">
+        <v>236</v>
+      </c>
+      <c r="C28" s="120" t="e">
         <f>C23+$C$24+C26</f>
         <v>#VALUE!</v>
       </c>
@@ -4899,7 +5008,7 @@
       <c r="B32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="104" t="str">
+      <c r="C32" s="101" t="str">
         <f>C13</f>
         <v>#DGTLCTVal</v>
       </c>
@@ -4908,7 +5017,7 @@
       <c r="B33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="105" t="e">
+      <c r="C33" s="102" t="e">
         <f>C32*10*C12</f>
         <v>#VALUE!</v>
       </c>
@@ -4916,54 +5025,54 @@
     </row>
     <row r="34" spans="2:12" s="2" customFormat="1">
       <c r="B34" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C34" s="105" t="e">
+        <v>228</v>
+      </c>
+      <c r="C34" s="102" t="e">
         <f>C6-$C$33</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="35" spans="2:12" s="2" customFormat="1">
       <c r="B35" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C35" s="105" t="e">
+        <v>238</v>
+      </c>
+      <c r="C35" s="102" t="e">
         <f>C7-$C$33</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="36" spans="2:12" s="2" customFormat="1">
       <c r="B36" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C36" s="106" t="e">
+        <v>229</v>
+      </c>
+      <c r="C36" s="103" t="e">
         <f>C34+$C$11</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="37" spans="2:12" s="2" customFormat="1">
       <c r="B37" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="C37" s="106" t="e">
+        <v>239</v>
+      </c>
+      <c r="C37" s="103" t="e">
         <f>C35+$C$11</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="38" spans="2:12" s="2" customFormat="1">
       <c r="B38" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C38" s="107" t="e">
+        <v>230</v>
+      </c>
+      <c r="C38" s="104" t="e">
         <f>C6/$C$11</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="39" spans="2:12" s="2" customFormat="1">
       <c r="B39" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C39" s="107" t="e">
+        <v>240</v>
+      </c>
+      <c r="C39" s="104" t="e">
         <f>C7/$C$11</f>
         <v>#VALUE!</v>
       </c>
@@ -4972,7 +5081,7 @@
       <c r="B40" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="108" t="e">
+      <c r="C40" s="105" t="e">
         <f>C38*C34</f>
         <v>#VALUE!</v>
       </c>
@@ -4981,37 +5090,37 @@
       <c r="B41" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="108" t="e">
+      <c r="C41" s="105" t="e">
         <f>C39*C35</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="42" spans="2:12" s="2" customFormat="1">
       <c r="B42" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="C42" s="109" t="e">
+        <v>245</v>
+      </c>
+      <c r="C42" s="106" t="e">
         <f>C40+C6</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="43" spans="2:12" s="2" customFormat="1">
       <c r="B43" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C43" s="109" t="e">
+        <v>241</v>
+      </c>
+      <c r="C43" s="106" t="e">
         <f>C41+C7</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="44" spans="2:12" s="2" customFormat="1">
-      <c r="C44" s="105"/>
+      <c r="C44" s="102"/>
     </row>
     <row r="45" spans="2:12" s="2" customFormat="1">
-      <c r="C45" s="105"/>
+      <c r="C45" s="102"/>
     </row>
     <row r="46" spans="2:12" s="2" customFormat="1">
-      <c r="C46" s="110">
+      <c r="C46" s="107">
         <f ca="1">YEAR("01/01/"&amp;YEAR(TODAY()) + 1)</f>
         <v>2025</v>
       </c>
@@ -5056,7 +5165,7 @@
       <c r="B47" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="106">
+      <c r="C47" s="103">
         <v>1</v>
       </c>
       <c r="D47" s="10">
@@ -5089,9 +5198,9 @@
     </row>
     <row r="48" spans="2:12" s="2" customFormat="1">
       <c r="B48" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C48" s="108" t="e">
+        <v>231</v>
+      </c>
+      <c r="C48" s="105" t="e">
         <f>C42</f>
         <v>#VALUE!</v>
       </c>
@@ -5134,9 +5243,9 @@
     </row>
     <row r="49" spans="2:13" s="2" customFormat="1">
       <c r="B49" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C49" s="108" t="e">
+        <v>242</v>
+      </c>
+      <c r="C49" s="105" t="e">
         <f>C43</f>
         <v>#VALUE!</v>
       </c>
@@ -5181,15 +5290,15 @@
       <c r="B50" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="111">
+      <c r="C50" s="108">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="51" spans="2:13" s="2" customFormat="1">
       <c r="B51" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C51" s="108" t="e">
+        <v>218</v>
+      </c>
+      <c r="C51" s="105" t="e">
         <f>C48/(1+$C$8)^C47</f>
         <v>#VALUE!</v>
       </c>
@@ -5233,9 +5342,9 @@
     </row>
     <row r="52" spans="2:13" s="2" customFormat="1">
       <c r="B52" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="C52" s="108" t="e">
+        <v>219</v>
+      </c>
+      <c r="C52" s="105" t="e">
         <f>C49/(1+$C$8)^C47</f>
         <v>#VALUE!</v>
       </c>
@@ -5279,18 +5388,18 @@
     </row>
     <row r="53" spans="2:13" s="2" customFormat="1">
       <c r="B53" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C53" s="106" t="e">
+        <v>232</v>
+      </c>
+      <c r="C53" s="103" t="e">
         <f>C36</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="54" spans="2:13" s="2" customFormat="1">
       <c r="B54" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="C54" s="106" t="e">
+        <v>243</v>
+      </c>
+      <c r="C54" s="103" t="e">
         <f>C37</f>
         <v>#VALUE!</v>
       </c>
@@ -5299,43 +5408,43 @@
       <c r="B55" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="105" t="str">
+      <c r="C55" s="102" t="str">
         <f>C12</f>
         <v>#DGTSLCPVal</v>
       </c>
     </row>
     <row r="56" spans="2:13" s="2" customFormat="1" ht="66.5">
       <c r="B56" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="C56" s="112" t="e">
+        <v>221</v>
+      </c>
+      <c r="C56" s="109" t="e">
         <f>((C51+D51+E51+F51+G51+H51+I51+J51+K51+L51)+C53)*(1-0.1*3.14)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="57" spans="2:13" s="2" customFormat="1" ht="66.5">
       <c r="B57" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="C57" s="112" t="e">
+        <v>220</v>
+      </c>
+      <c r="C57" s="109" t="e">
         <f>((C52+D52+E52+F52+G52+H52+I52+J52+K52+L52)+C54)*(1-0.1*3.14)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="58" spans="2:13" s="2" customFormat="1" ht="66.5">
       <c r="B58" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C58" s="113" t="e">
+        <v>233</v>
+      </c>
+      <c r="C58" s="110" t="e">
         <f>(C56*1000000000)/($C$55*1000000)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="59" spans="2:13" s="2" customFormat="1" ht="66.5">
       <c r="B59" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="C59" s="113" t="e">
+        <v>244</v>
+      </c>
+      <c r="C59" s="110" t="e">
         <f>(C57*1000000000)/($C$55*1000000)</f>
         <v>#VALUE!</v>
       </c>

--- a/website/file/template_final.xlsx
+++ b/website/file/template_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\tienpd3.github.io\website\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076F2F29-D4B0-43BF-8D1E-B79DFD9E7B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF15AD0-2496-4253-91D5-F6F63D0D07BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Xu hướng ngành'!$A$1:$B$20</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,32 +31,12 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </valueMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1010,18 +990,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="11">
+  <numFmts count="10">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0_);[Red]\-#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="0%_);[Red]\-0%"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0&quot; tỷ&quot;;[Red]\-#,##0.0&quot; tỷ&quot;"/>
-    <numFmt numFmtId="169" formatCode="0.0%_);[Red]\-0.0%"/>
-    <numFmt numFmtId="170" formatCode="#,##0.00,,,\ &quot; tỷ&quot;"/>
-    <numFmt numFmtId="171" formatCode="#,##0.00\ &quot;tỷ&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00\ &quot;triệu&quot;"/>
-    <numFmt numFmtId="173" formatCode="#,##0\ &quot;đồng&quot;"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0_);[Red]\-#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="0%_);[Red]\-0%"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0&quot; tỷ&quot;;[Red]\-#,##0.0&quot; tỷ&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.0%_);[Red]\-0.0%"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00,,,\ &quot; tỷ&quot;"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00\ &quot;tỷ&quot;"/>
+    <numFmt numFmtId="171" formatCode="#,##0.00\ &quot;triệu&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0\ &quot;đồng&quot;"/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -1725,31 +1704,31 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="34" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="43" fontId="34" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="35" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="35" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1760,7 +1739,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1769,8 +1748,8 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="26" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="26" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="26" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1813,19 +1792,19 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="26" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="7" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="26" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="26" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="26" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="26" fillId="7" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="26" fillId="7" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1868,17 +1847,17 @@
     <xf numFmtId="10" fontId="27" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="26" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="27" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="26" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="27" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="27" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="27" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="27" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="27" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="27" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1902,7 +1881,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1920,7 +1899,7 @@
     <xf numFmtId="43" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1932,19 +1911,19 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="17" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1953,6 +1932,9 @@
     <xf numFmtId="10" fontId="14" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1967,9 +1949,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1981,6 +1960,450 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="55">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2043,450 +2466,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2506,70 +2485,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <fb t="e">#NAME?</fb>
-    <v>4</v>
-    <v>1</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_error">
-    <k n="errorType" t="i"/>
-    <k n="subType" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:B12" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:B12" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nhóm ngành" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="P/E" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nhóm ngành" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="P/E" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2926,7 +2846,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="75" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2940,15 +2860,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="124"/>
+      <c r="B1" s="125"/>
       <c r="C1" s="46"/>
-      <c r="D1" s="121" t="s">
+      <c r="D1" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="121"/>
+      <c r="E1" s="122"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="61" t="s">
@@ -3086,10 +3006,10 @@
         <f>Hidden!C22</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D10" s="122" t="s">
+      <c r="D10" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="122"/>
+      <c r="E10" s="123"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="63" t="s">
@@ -3103,8 +3023,8 @@
         <f>Hidden!C24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="63" t="s">
@@ -3118,8 +3038,8 @@
         <f>Hidden!C25</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="74" t="s">
@@ -3133,8 +3053,8 @@
         <f>Hidden!C27</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
     </row>
     <row r="14" spans="1:5" ht="14.5" thickBot="1">
       <c r="A14" s="64" t="s">
@@ -3170,21 +3090,21 @@
       <c r="E15" s="46"/>
     </row>
     <row r="16" spans="1:5" ht="24">
-      <c r="A16" s="126" t="s">
+      <c r="A16" s="121" t="s">
         <v>273</v>
       </c>
       <c r="B16" s="80" t="s">
         <v>255</v>
       </c>
-      <c r="C16" s="84" t="e" vm="1">
-        <f ca="1">IF(B16="N/A", "N/A", _xlfn.IFS(B16=1,"YES",B16=0,"NO"))</f>
-        <v>#NAME?</v>
+      <c r="C16" s="84" t="e">
+        <f>IF(B16="N/A", "N/A", _xlfn.IFS(B16=1,"YES",B16=0,"NO"))</f>
+        <v>#N/A</v>
       </c>
       <c r="D16" s="46"/>
       <c r="E16" s="46"/>
     </row>
     <row r="17" spans="1:5" s="24" customFormat="1" ht="24">
-      <c r="A17" s="126" t="s">
+      <c r="A17" s="121" t="s">
         <v>272</v>
       </c>
       <c r="B17" s="97" t="s">
@@ -3391,67 +3311,67 @@
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <conditionalFormatting sqref="B10:C13">
-    <cfRule type="cellIs" dxfId="54" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:C14">
-    <cfRule type="containsText" dxfId="53" priority="7" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="49" priority="7" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="8" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="48" priority="8" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="9" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="47" priority="9" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="10" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="46" priority="10" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="11" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="45" priority="11" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="12" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="44" priority="12" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",B14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C30">
-    <cfRule type="containsText" dxfId="47" priority="34" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="43" priority="34" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="35" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="42" priority="35" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="36" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="41" priority="36" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="37" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="40" priority="37" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="38" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="39" priority="38" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="39" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",D15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="2" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="36" priority="2" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",D15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",D15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="34" priority="4" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",D15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",D15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",D15)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4175,162 +4095,162 @@
   </sheetData>
   <phoneticPr fontId="37" type="noConversion"/>
   <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="35" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
       <formula>$D$23&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="34" priority="12">
+    <cfRule type="expression" dxfId="30" priority="12">
       <formula>$D$25&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="33" priority="7">
+    <cfRule type="expression" dxfId="29" priority="7">
       <formula>$D$27&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="32" priority="26">
+    <cfRule type="expression" dxfId="28" priority="26">
       <formula>$D$33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="31" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="31" stopIfTrue="1">
       <formula>$D$35&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="30" priority="21">
+    <cfRule type="expression" dxfId="26" priority="21">
       <formula>$D$40&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:H14">
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="greaterThanOrEqual">
       <formula>"0.05"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:H15">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="greaterThanOrEqual">
       <formula>"0.15"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="27" priority="16">
+    <cfRule type="expression" dxfId="23" priority="16">
       <formula>$E$23&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="26" priority="11">
+    <cfRule type="expression" dxfId="22" priority="11">
       <formula>$E$25&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="25" priority="6">
+    <cfRule type="expression" dxfId="21" priority="6">
       <formula>$E$27&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="24" priority="25">
+    <cfRule type="expression" dxfId="20" priority="25">
       <formula>$E$33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="23" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="30" stopIfTrue="1">
       <formula>$E$35&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="expression" dxfId="22" priority="20">
+    <cfRule type="expression" dxfId="18" priority="20">
       <formula>$E$40&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="expression" dxfId="21" priority="15">
+    <cfRule type="expression" dxfId="17" priority="15">
       <formula>$F$23&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="20" priority="10">
+    <cfRule type="expression" dxfId="16" priority="10">
       <formula>$F$25&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="expression" dxfId="19" priority="5">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>$F$27&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="expression" dxfId="18" priority="24">
+    <cfRule type="expression" dxfId="14" priority="24">
       <formula>$F$33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="expression" dxfId="17" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="29" stopIfTrue="1">
       <formula>$F$35&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="expression" dxfId="16" priority="19">
+    <cfRule type="expression" dxfId="12" priority="19">
       <formula>$F$40&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="15" priority="14">
+    <cfRule type="expression" dxfId="11" priority="14">
       <formula>$G$23&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="14" priority="9">
+    <cfRule type="expression" dxfId="10" priority="9">
       <formula>$G$25&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>$G$27&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="expression" dxfId="12" priority="23">
+    <cfRule type="expression" dxfId="8" priority="23">
       <formula>$G$33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="11" priority="28">
+    <cfRule type="expression" dxfId="7" priority="28">
       <formula>$G$35&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="expression" dxfId="10" priority="18">
+    <cfRule type="expression" dxfId="6" priority="18">
       <formula>$G$40&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="9" priority="13">
+    <cfRule type="expression" dxfId="5" priority="13">
       <formula>$H$23&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>$H$25&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$H$27&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="6" priority="22">
+    <cfRule type="expression" dxfId="2" priority="22">
       <formula>$H$33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="expression" dxfId="5" priority="27">
+    <cfRule type="expression" dxfId="1" priority="27">
       <formula>$H$35&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="expression" dxfId="4" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
       <formula>$H$40&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4451,38 +4371,38 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="125" t="s">
+      <c r="A13" s="126" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="125"/>
+      <c r="B13" s="126"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="125"/>
-      <c r="B14" s="125"/>
+      <c r="A14" s="126"/>
+      <c r="B14" s="126"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="125"/>
-      <c r="B15" s="125"/>
+      <c r="A15" s="126"/>
+      <c r="B15" s="126"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="125"/>
-      <c r="B16" s="125"/>
+      <c r="A16" s="126"/>
+      <c r="B16" s="126"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="125"/>
-      <c r="B17" s="125"/>
+      <c r="A17" s="126"/>
+      <c r="B17" s="126"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="125"/>
-      <c r="B18" s="125"/>
+      <c r="A18" s="126"/>
+      <c r="B18" s="126"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="125"/>
-      <c r="B19" s="125"/>
+      <c r="A19" s="126"/>
+      <c r="B19" s="126"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="125"/>
-      <c r="B20" s="125"/>
+      <c r="A20" s="126"/>
+      <c r="B20" s="126"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="23"/>
@@ -4504,8 +4424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:M59"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>

--- a/website/file/template_final.xlsx
+++ b/website/file/template_final.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\tienpd3.github.io\website\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF15AD0-2496-4253-91D5-F6F63D0D07BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HƯỚNG DẪN" sheetId="8" state="hidden" r:id="rId1"/>
@@ -22,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Xu hướng ngành'!$A$1:$B$20</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -989,18 +988,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="10">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0_);[Red]\-#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="0%_);[Red]\-0%"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0&quot; tỷ&quot;;[Red]\-#,##0.0&quot; tỷ&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.0%_);[Red]\-0.0%"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00,,,\ &quot; tỷ&quot;"/>
-    <numFmt numFmtId="170" formatCode="#,##0.00\ &quot;tỷ&quot;"/>
-    <numFmt numFmtId="171" formatCode="#,##0.00\ &quot;triệu&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0\ &quot;đồng&quot;"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0_);[Red]\-#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="0%_);[Red]\-0%"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0&quot; tỷ&quot;;[Red]\-#,##0.0&quot; tỷ&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.0%_);[Red]\-0.0%"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00,,,\ &quot; tỷ&quot;"/>
+    <numFmt numFmtId="171" formatCode="#,##0.00\ &quot;tỷ&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00\ &quot;triệu&quot;"/>
+    <numFmt numFmtId="173" formatCode="#,##0\ &quot;đồng&quot;"/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -1652,11 +1651,11 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1668,7 +1667,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
@@ -1704,31 +1703,31 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="34" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="43" fontId="34" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="168" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="35" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="35" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1739,7 +1738,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1748,8 +1747,8 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="26" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="26" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="26" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="26" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1792,19 +1791,19 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="26" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="26" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="26" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="26" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="26" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="26" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="26" fillId="7" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="26" fillId="7" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1847,17 +1846,17 @@
     <xf numFmtId="10" fontId="27" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="26" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="27" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="26" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="27" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="27" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="27" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="27" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="27" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="27" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1881,7 +1880,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1896,10 +1895,10 @@
     <xf numFmtId="10" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1911,19 +1910,19 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="17" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1953,13 +1952,76 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="5" xr:uid="{C5388D94-6FE6-4DCB-8DD3-F5F7CCD841B5}"/>
+    <cellStyle name="Comma 2" xfId="5"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4" xr:uid="{22EA787E-0274-4C59-A839-94D838AD0D95}"/>
+    <cellStyle name="Normal 2" xfId="4"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="55">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -2404,69 +2466,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
@@ -2486,19 +2485,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:B12" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B12" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nhóm ngành" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="P/E" dataDxfId="51"/>
+    <tableColumn id="1" name="Nhóm ngành" dataDxfId="1"/>
+    <tableColumn id="2" name="P/E" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2536,9 +2535,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2571,9 +2570,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2606,9 +2622,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2781,7 +2814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:C13"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
@@ -2842,11 +2875,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="75" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3015,13 +3048,13 @@
       <c r="A11" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="B11" s="88" t="e">
-        <f>Hidden!C24</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C11" s="67" t="e">
-        <f>Hidden!C24</f>
-        <v>#VALUE!</v>
+      <c r="B11" s="88">
+        <f>IFERROR(Hidden!C24, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="67">
+        <f>IFERROR(Hidden!C24, 0)</f>
+        <v>0</v>
       </c>
       <c r="D11" s="123"/>
       <c r="E11" s="123"/>
@@ -3030,13 +3063,13 @@
       <c r="A12" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="89" t="e">
-        <f>Hidden!C26</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C12" s="67" t="e">
-        <f>Hidden!C25</f>
-        <v>#VALUE!</v>
+      <c r="B12" s="89">
+        <f>IFERROR(Hidden!C26, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="67">
+        <f>IFERROR(Hidden!C25, 0)</f>
+        <v>0</v>
       </c>
       <c r="D12" s="123"/>
       <c r="E12" s="123"/>
@@ -3046,11 +3079,11 @@
         <v>11</v>
       </c>
       <c r="B13" s="75" t="e">
-        <f>Hidden!C28</f>
+        <f>IFERROR(Hidden!C28, B10)</f>
         <v>#VALUE!</v>
       </c>
       <c r="C13" s="76" t="e">
-        <f>Hidden!C27</f>
+        <f>IFERROR(Hidden!C27,C10)</f>
         <v>#VALUE!</v>
       </c>
       <c r="D13" s="123"/>
@@ -3311,67 +3344,67 @@
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <conditionalFormatting sqref="B10:C13">
-    <cfRule type="cellIs" dxfId="50" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:C14">
-    <cfRule type="containsText" dxfId="49" priority="7" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="53" priority="7" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="8" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="52" priority="8" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="9" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="51" priority="9" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="10" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="50" priority="10" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="11" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="49" priority="11" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="12" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="48" priority="12" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",B14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C30">
-    <cfRule type="containsText" dxfId="43" priority="34" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="47" priority="34" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="35" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="46" priority="35" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="36" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="45" priority="36" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="37" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="44" priority="37" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="38" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="43" priority="38" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="42" priority="39" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",D15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="2" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="40" priority="2" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",D15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",D15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="4" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",D15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",D15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",D15)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3381,7 +3414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D72A67F-DFF9-437F-9E79-D965885C7F31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:J46"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
@@ -4095,162 +4128,162 @@
   </sheetData>
   <phoneticPr fontId="37" type="noConversion"/>
   <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="32" stopIfTrue="1">
       <formula>$D$23&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="30" priority="12">
+    <cfRule type="expression" dxfId="34" priority="12">
       <formula>$D$25&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="29" priority="7">
+    <cfRule type="expression" dxfId="33" priority="7">
       <formula>$D$27&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="28" priority="26">
+    <cfRule type="expression" dxfId="32" priority="26">
       <formula>$D$33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="27" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="31" stopIfTrue="1">
       <formula>$D$35&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="26" priority="21">
+    <cfRule type="expression" dxfId="30" priority="21">
       <formula>$D$40&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:H14">
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="greaterThanOrEqual">
       <formula>"0.05"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:H15">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="greaterThanOrEqual">
       <formula>"0.15"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="23" priority="16">
+    <cfRule type="expression" dxfId="27" priority="16">
       <formula>$E$23&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="22" priority="11">
+    <cfRule type="expression" dxfId="26" priority="11">
       <formula>$E$25&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="21" priority="6">
+    <cfRule type="expression" dxfId="25" priority="6">
       <formula>$E$27&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="20" priority="25">
+    <cfRule type="expression" dxfId="24" priority="25">
       <formula>$E$33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="19" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="30" stopIfTrue="1">
       <formula>$E$35&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="expression" dxfId="18" priority="20">
+    <cfRule type="expression" dxfId="22" priority="20">
       <formula>$E$40&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="expression" dxfId="17" priority="15">
+    <cfRule type="expression" dxfId="21" priority="15">
       <formula>$F$23&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="16" priority="10">
+    <cfRule type="expression" dxfId="20" priority="10">
       <formula>$F$25&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>$F$27&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="expression" dxfId="14" priority="24">
+    <cfRule type="expression" dxfId="18" priority="24">
       <formula>$F$33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="expression" dxfId="13" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="29" stopIfTrue="1">
       <formula>$F$35&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="expression" dxfId="12" priority="19">
+    <cfRule type="expression" dxfId="16" priority="19">
       <formula>$F$40&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="11" priority="14">
+    <cfRule type="expression" dxfId="15" priority="14">
       <formula>$G$23&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="14" priority="9">
       <formula>$G$25&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>$G$27&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="expression" dxfId="8" priority="23">
+    <cfRule type="expression" dxfId="12" priority="23">
       <formula>$G$33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="7" priority="28">
+    <cfRule type="expression" dxfId="11" priority="28">
       <formula>$G$35&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="expression" dxfId="6" priority="18">
+    <cfRule type="expression" dxfId="10" priority="18">
       <formula>$G$40&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="5" priority="13">
+    <cfRule type="expression" dxfId="9" priority="13">
       <formula>$H$23&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>$H$25&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>$H$27&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="2" priority="22">
+    <cfRule type="expression" dxfId="6" priority="22">
       <formula>$H$33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="expression" dxfId="1" priority="27">
+    <cfRule type="expression" dxfId="5" priority="27">
       <formula>$H$35&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="17" stopIfTrue="1">
       <formula>$H$40&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4259,7 +4292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
@@ -4421,11 +4454,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -5040,45 +5073,45 @@
       <c r="C45" s="102"/>
     </row>
     <row r="46" spans="2:12" s="2" customFormat="1">
-      <c r="C46" s="107">
+      <c r="C46" s="107" t="e">
         <f ca="1">YEAR("01/01/"&amp;YEAR(TODAY()) + 1)</f>
-        <v>2025</v>
-      </c>
-      <c r="D46" s="19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D46" s="19" t="e">
         <f t="shared" ref="D46:L46" ca="1" si="7">C46 + 1</f>
-        <v>2026</v>
-      </c>
-      <c r="E46" s="19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E46" s="19" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>2027</v>
-      </c>
-      <c r="F46" s="19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F46" s="19" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>2028</v>
-      </c>
-      <c r="G46" s="19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G46" s="19" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>2029</v>
-      </c>
-      <c r="H46" s="19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H46" s="19" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>2030</v>
-      </c>
-      <c r="I46" s="19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I46" s="19" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>2031</v>
-      </c>
-      <c r="J46" s="19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J46" s="19" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>2032</v>
-      </c>
-      <c r="K46" s="19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K46" s="19" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>2033</v>
-      </c>
-      <c r="L46" s="19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L46" s="19" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>2034</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="47" spans="2:12" s="2" customFormat="1">
